--- a/RecentWeekAlert_Data🔥/xlsx/data-gov-week.xlsx
+++ b/RecentWeekAlert_Data🔥/xlsx/data-gov-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="107">
   <si>
     <t>no</t>
   </si>
@@ -46,63 +46,54 @@
     <t>quarantine</t>
   </si>
   <si>
+    <t>หญิง</t>
+  </si>
+  <si>
     <t>ชาย</t>
   </si>
   <si>
-    <t>หญิง</t>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>United States of America</t>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
   </si>
   <si>
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Laos</t>
   </si>
   <si>
     <t>Italy</t>
   </si>
   <si>
-    <t>Burma</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
@@ -115,21 +106,21 @@
     <t>china</t>
   </si>
   <si>
+    <t>สมุทรปราการ</t>
+  </si>
+  <si>
     <t>กทม</t>
   </si>
   <si>
+    <t>ชลบุรี</t>
+  </si>
+  <si>
+    <t>สมุทรสาคร</t>
+  </si>
+  <si>
     <t>เชียงราย</t>
   </si>
   <si>
-    <t>ชลบุรี</t>
-  </si>
-  <si>
-    <t>สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>สมุทรปราการ</t>
-  </si>
-  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
@@ -184,67 +175,55 @@
     <t>กรุงเทพมหานคร</t>
   </si>
   <si>
+    <t>บางบ่อ</t>
+  </si>
+  <si>
+    <t>ห้วยขวาง</t>
+  </si>
+  <si>
     <t>ปากเกร็ด</t>
   </si>
   <si>
+    <t>บางละมุง</t>
+  </si>
+  <si>
+    <t>บางพลี</t>
+  </si>
+  <si>
+    <t>คลองเตย</t>
+  </si>
+  <si>
+    <t>บางรัก</t>
+  </si>
+  <si>
     <t>เมือง</t>
   </si>
   <si>
+    <t>คลองสามวา</t>
+  </si>
+  <si>
+    <t>บางซื่อ</t>
+  </si>
+  <si>
+    <t>จอมทอง</t>
+  </si>
+  <si>
+    <t>พระประแดง</t>
+  </si>
+  <si>
+    <t>นครชัยศรี</t>
+  </si>
+  <si>
+    <t>กำแพงแสน</t>
+  </si>
+  <si>
+    <t>บางปะอิน</t>
+  </si>
+  <si>
     <t>วัฒนา</t>
   </si>
   <si>
-    <t>คลองเตยเหนือ</t>
-  </si>
-  <si>
-    <t>บางละมุุง</t>
-  </si>
-  <si>
-    <t>บางละมุง</t>
-  </si>
-  <si>
-    <t>ราชเทวี</t>
-  </si>
-  <si>
-    <t>บางบ่อ</t>
-  </si>
-  <si>
-    <t>สุขุมวิท</t>
-  </si>
-  <si>
-    <t>ห้วยขวาง</t>
-  </si>
-  <si>
-    <t>บางพลี</t>
-  </si>
-  <si>
-    <t>คลองเตย</t>
-  </si>
-  <si>
-    <t>บางรัก</t>
-  </si>
-  <si>
     <t>บางกะปิ</t>
-  </si>
-  <si>
-    <t>คลองสามวา</t>
-  </si>
-  <si>
-    <t>บางซื่อ</t>
-  </si>
-  <si>
-    <t>จอมทอง</t>
-  </si>
-  <si>
-    <t>พระประแดง</t>
-  </si>
-  <si>
-    <t>นครชัยศรี</t>
-  </si>
-  <si>
-    <t>กำแพงแสน</t>
-  </si>
-  <si>
-    <t>บางปะอิน</t>
   </si>
   <si>
     <t>บึงกุ่ม</t>
@@ -717,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J207"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,10 +736,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>4282</v>
+        <v>4298</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -769,27 +748,27 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G2" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>4283</v>
+        <v>4300</v>
       </c>
       <c r="B3">
         <v>36</v>
@@ -801,423 +780,423 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G3" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>4284</v>
+        <v>4301</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G4" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>4285</v>
+        <v>4302</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G5" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>4286</v>
+        <v>4306</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G6" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>4288</v>
+        <v>4307</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G7" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>4290</v>
+        <v>4308</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G8" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>4291</v>
+        <v>4309</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G9" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>4292</v>
+        <v>4310</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G10" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>4293</v>
+        <v>4311</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G11" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H11" t="s">
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>4294</v>
+        <v>4312</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G12" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>4295</v>
+        <v>4313</v>
       </c>
       <c r="B13">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G13" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>4296</v>
+        <v>4314</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G14" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>4297</v>
+        <v>4315</v>
       </c>
       <c r="B15">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G15" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>4298</v>
+        <v>4316</v>
       </c>
       <c r="B16">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2">
         <v>44183</v>
@@ -1226,59 +1205,59 @@
         <v>44184</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>4299</v>
+        <v>4319</v>
       </c>
       <c r="B17">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G17" s="2">
         <v>44184</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>4300</v>
+        <v>4320</v>
       </c>
       <c r="B18">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
@@ -1290,27 +1269,27 @@
         <v>44184</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>4301</v>
+        <v>4321</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -1322,30 +1301,30 @@
         <v>44184</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>4302</v>
+        <v>4322</v>
       </c>
       <c r="B20">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" s="2">
         <v>44183</v>
@@ -1354,123 +1333,123 @@
         <v>44184</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>4303</v>
+        <v>4323</v>
       </c>
       <c r="B21">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G21" s="2">
         <v>44184</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>4304</v>
+        <v>4324</v>
       </c>
       <c r="B22">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
       </c>
       <c r="F22" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G22" s="2">
         <v>44184</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>4305</v>
+        <v>4325</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G23" s="2">
         <v>44184</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>4306</v>
+        <v>4326</v>
       </c>
       <c r="B24">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
@@ -1482,27 +1461,27 @@
         <v>44184</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>4307</v>
+        <v>4327</v>
       </c>
       <c r="B25">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -1514,27 +1493,27 @@
         <v>44184</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>4308</v>
+        <v>4328</v>
       </c>
       <c r="B26">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
@@ -1546,27 +1525,27 @@
         <v>44184</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>4309</v>
+        <v>4329</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
@@ -1578,30 +1557,30 @@
         <v>44184</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>4310</v>
+        <v>4330</v>
       </c>
       <c r="B28">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F28" s="2">
         <v>44183</v>
@@ -1610,27 +1589,27 @@
         <v>44184</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>4311</v>
+        <v>4331</v>
       </c>
       <c r="B29">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -1642,27 +1621,27 @@
         <v>44184</v>
       </c>
       <c r="H29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>4312</v>
+        <v>4332</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
@@ -1671,705 +1650,705 @@
         <v>44183</v>
       </c>
       <c r="G30" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>4313</v>
+        <v>4333</v>
       </c>
       <c r="B31">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" s="2">
         <v>44183</v>
       </c>
       <c r="G31" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>4314</v>
+        <v>4334</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F32" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G32" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>4315</v>
+        <v>4335</v>
       </c>
       <c r="B33">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
       </c>
       <c r="F33" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G33" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I33" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>4316</v>
+        <v>4336</v>
       </c>
       <c r="B34">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2">
         <v>44183</v>
       </c>
       <c r="G34" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>4317</v>
+        <v>4337</v>
       </c>
       <c r="B35">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
       <c r="F35" s="2">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="G35" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I35" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>4318</v>
+        <v>4338</v>
       </c>
       <c r="B36">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
         <v>33</v>
       </c>
       <c r="F36" s="2">
-        <v>44182</v>
+        <v>44185</v>
       </c>
       <c r="G36" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>4319</v>
+        <v>4339</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G37" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>4320</v>
+        <v>4340</v>
       </c>
       <c r="B38">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F38" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G38" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>4321</v>
+        <v>4341</v>
       </c>
       <c r="B39">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G39" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J39" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>4322</v>
+        <v>4342</v>
       </c>
       <c r="B40">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F40" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G40" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J40" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>4323</v>
+        <v>4344</v>
       </c>
       <c r="B41">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F41" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G41" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J41" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>4324</v>
+        <v>4345</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F42" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G42" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H42" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>4325</v>
+        <v>4346</v>
       </c>
       <c r="B43">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F43" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G43" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H43" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>4326</v>
+        <v>4347</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F44" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G44" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H44" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J44" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>4327</v>
+        <v>4348</v>
       </c>
       <c r="B45">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F45" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G45" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>4328</v>
+        <v>4349</v>
       </c>
       <c r="B46">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F46" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G46" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>4329</v>
+        <v>4350</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F47" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G47" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H47" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I47" t="s">
         <v>57</v>
       </c>
       <c r="J47" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>4330</v>
+        <v>4351</v>
       </c>
       <c r="B48">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F48" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G48" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I48" t="s">
         <v>57</v>
       </c>
       <c r="J48" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>4331</v>
+        <v>4352</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
         <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F49" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G49" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="H49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>4332</v>
+        <v>4353</v>
       </c>
       <c r="B50">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F50" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G50" s="2">
         <v>44185</v>
       </c>
       <c r="H50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>4333</v>
+        <v>4354</v>
       </c>
       <c r="B51">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F51" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G51" s="2">
         <v>44185</v>
       </c>
       <c r="H51" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>4334</v>
+        <v>4355</v>
       </c>
       <c r="B52">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F52" s="2">
         <v>44184</v>
@@ -2378,30 +2357,30 @@
         <v>44185</v>
       </c>
       <c r="H52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>4335</v>
+        <v>4356</v>
       </c>
       <c r="B53">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F53" s="2">
         <v>44184</v>
@@ -2410,126 +2389,126 @@
         <v>44185</v>
       </c>
       <c r="H53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>4336</v>
+        <v>4357</v>
       </c>
       <c r="B54">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F54" s="2">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="G54" s="2">
         <v>44185</v>
       </c>
       <c r="H54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J54" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>4337</v>
+        <v>4358</v>
       </c>
       <c r="B55">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="2">
+        <v>44184</v>
+      </c>
+      <c r="G55" s="2">
+        <v>44185</v>
+      </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" t="s">
         <v>56</v>
       </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="2">
-        <v>44183</v>
-      </c>
-      <c r="G55" s="2">
-        <v>44185</v>
-      </c>
-      <c r="H55" t="s">
-        <v>36</v>
-      </c>
-      <c r="I55" t="s">
-        <v>57</v>
-      </c>
       <c r="J55" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>4338</v>
+        <v>4359</v>
       </c>
       <c r="B56">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F56" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="G56" s="2">
         <v>44185</v>
       </c>
       <c r="H56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>4339</v>
+        <v>4360</v>
       </c>
       <c r="B57">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F57" s="2">
         <v>44184</v>
@@ -2538,30 +2517,30 @@
         <v>44185</v>
       </c>
       <c r="H57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J57" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>4340</v>
+        <v>4361</v>
       </c>
       <c r="B58">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F58" s="2">
         <v>44184</v>
@@ -2570,30 +2549,30 @@
         <v>44185</v>
       </c>
       <c r="H58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>4341</v>
+        <v>4362</v>
       </c>
       <c r="B59">
         <v>29</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F59" s="2">
         <v>44184</v>
@@ -2602,30 +2581,30 @@
         <v>44185</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J59" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>4342</v>
+        <v>4363</v>
       </c>
       <c r="B60">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F60" s="2">
         <v>44184</v>
@@ -2634,62 +2613,62 @@
         <v>44185</v>
       </c>
       <c r="H60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J60" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>4343</v>
+        <v>4364</v>
       </c>
       <c r="B61">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" s="2">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="G61" s="2">
         <v>44185</v>
       </c>
       <c r="H61" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I61" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J61" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>4344</v>
+        <v>4365</v>
       </c>
       <c r="B62">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F62" s="2">
         <v>44184</v>
@@ -2698,30 +2677,30 @@
         <v>44185</v>
       </c>
       <c r="H62" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I62" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J62" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>4345</v>
+        <v>4366</v>
       </c>
       <c r="B63">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F63" s="2">
         <v>44184</v>
@@ -2730,30 +2709,30 @@
         <v>44185</v>
       </c>
       <c r="H63" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I63" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J63" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>4346</v>
+        <v>4367</v>
       </c>
       <c r="B64">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F64" s="2">
         <v>44184</v>
@@ -2762,30 +2741,30 @@
         <v>44185</v>
       </c>
       <c r="H64" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I64" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J64" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>4347</v>
+        <v>4368</v>
       </c>
       <c r="B65">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F65" s="2">
         <v>44184</v>
@@ -2794,30 +2773,30 @@
         <v>44185</v>
       </c>
       <c r="H65" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="J65" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>4348</v>
+        <v>4369</v>
       </c>
       <c r="B66">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F66" s="2">
         <v>44184</v>
@@ -2826,30 +2805,30 @@
         <v>44185</v>
       </c>
       <c r="H66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J66" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>4349</v>
+        <v>4370</v>
       </c>
       <c r="B67">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F67" s="2">
         <v>44184</v>
@@ -2858,30 +2837,30 @@
         <v>44185</v>
       </c>
       <c r="H67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J67" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>4350</v>
+        <v>4371</v>
       </c>
       <c r="B68">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F68" s="2">
         <v>44184</v>
@@ -2890,30 +2869,30 @@
         <v>44185</v>
       </c>
       <c r="H68" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I68" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J68" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>4351</v>
+        <v>4372</v>
       </c>
       <c r="B69">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F69" s="2">
         <v>44184</v>
@@ -2922,30 +2901,30 @@
         <v>44185</v>
       </c>
       <c r="H69" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I69" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="J69" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>4352</v>
+        <v>4373</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F70" s="2">
         <v>44184</v>
@@ -2954,30 +2933,30 @@
         <v>44185</v>
       </c>
       <c r="H70" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J70" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>4353</v>
+        <v>4374</v>
       </c>
       <c r="B71">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F71" s="2">
         <v>44184</v>
@@ -2986,30 +2965,30 @@
         <v>44185</v>
       </c>
       <c r="H71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I71" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J71" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>4354</v>
+        <v>4375</v>
       </c>
       <c r="B72">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F72" s="2">
         <v>44184</v>
@@ -3018,30 +2997,30 @@
         <v>44185</v>
       </c>
       <c r="H72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I72" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J72" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>4355</v>
+        <v>4376</v>
       </c>
       <c r="B73">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F73" s="2">
         <v>44184</v>
@@ -3050,30 +3029,30 @@
         <v>44185</v>
       </c>
       <c r="H73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I73" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J73" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>4356</v>
+        <v>4377</v>
       </c>
       <c r="B74">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F74" s="2">
         <v>44184</v>
@@ -3082,30 +3061,30 @@
         <v>44185</v>
       </c>
       <c r="H74" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I74" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J74" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>4357</v>
+        <v>4378</v>
       </c>
       <c r="B75">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F75" s="2">
         <v>44184</v>
@@ -3114,30 +3093,30 @@
         <v>44185</v>
       </c>
       <c r="H75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I75" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J75" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>4358</v>
+        <v>4379</v>
       </c>
       <c r="B76">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F76" s="2">
         <v>44184</v>
@@ -3146,30 +3125,30 @@
         <v>44185</v>
       </c>
       <c r="H76" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I76" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J76" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>4359</v>
+        <v>4380</v>
       </c>
       <c r="B77">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F77" s="2">
         <v>44184</v>
@@ -3178,30 +3157,30 @@
         <v>44185</v>
       </c>
       <c r="H77" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I77" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J77" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>4360</v>
+        <v>4381</v>
       </c>
       <c r="B78">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F78" s="2">
         <v>44184</v>
@@ -3210,30 +3189,30 @@
         <v>44185</v>
       </c>
       <c r="H78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I78" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J78" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>4361</v>
+        <v>4382</v>
       </c>
       <c r="B79">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F79" s="2">
         <v>44184</v>
@@ -3242,30 +3221,30 @@
         <v>44185</v>
       </c>
       <c r="H79" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J79" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>4362</v>
+        <v>4383</v>
       </c>
       <c r="B80">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F80" s="2">
         <v>44184</v>
@@ -3274,30 +3253,30 @@
         <v>44185</v>
       </c>
       <c r="H80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J80" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>4363</v>
+        <v>4384</v>
       </c>
       <c r="B81">
         <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F81" s="2">
         <v>44184</v>
@@ -3306,30 +3285,30 @@
         <v>44185</v>
       </c>
       <c r="H81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J81" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>4364</v>
+        <v>4385</v>
       </c>
       <c r="B82">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F82" s="2">
         <v>44184</v>
@@ -3338,30 +3317,30 @@
         <v>44185</v>
       </c>
       <c r="H82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J82" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>4365</v>
+        <v>4386</v>
       </c>
       <c r="B83">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F83" s="2">
         <v>44184</v>
@@ -3370,30 +3349,30 @@
         <v>44185</v>
       </c>
       <c r="H83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I83" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J83" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>4366</v>
+        <v>4387</v>
       </c>
       <c r="B84">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F84" s="2">
         <v>44184</v>
@@ -3402,30 +3381,30 @@
         <v>44185</v>
       </c>
       <c r="H84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J84" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>4367</v>
+        <v>4388</v>
       </c>
       <c r="B85">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F85" s="2">
         <v>44184</v>
@@ -3434,30 +3413,30 @@
         <v>44185</v>
       </c>
       <c r="H85" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J85" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>4368</v>
+        <v>4389</v>
       </c>
       <c r="B86">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F86" s="2">
         <v>44184</v>
@@ -3466,30 +3445,30 @@
         <v>44185</v>
       </c>
       <c r="H86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J86" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>4369</v>
+        <v>4390</v>
       </c>
       <c r="B87">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F87" s="2">
         <v>44184</v>
@@ -3498,30 +3477,30 @@
         <v>44185</v>
       </c>
       <c r="H87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J87" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>4370</v>
+        <v>4391</v>
       </c>
       <c r="B88">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F88" s="2">
         <v>44184</v>
@@ -3530,27 +3509,27 @@
         <v>44185</v>
       </c>
       <c r="H88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J88" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>4371</v>
+        <v>4392</v>
       </c>
       <c r="B89">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
         <v>35</v>
@@ -3559,740 +3538,740 @@
         <v>44184</v>
       </c>
       <c r="G89" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H89" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I89" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J89" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>4372</v>
+        <v>4393</v>
       </c>
       <c r="B90">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F90" s="2">
         <v>44184</v>
       </c>
       <c r="G90" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I90" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J90" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>4373</v>
+        <v>4394</v>
       </c>
       <c r="B91">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91" s="2">
         <v>44184</v>
       </c>
       <c r="G91" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I91" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J91" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>4374</v>
+        <v>4395</v>
       </c>
       <c r="B92">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F92" s="2">
         <v>44184</v>
       </c>
       <c r="G92" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I92" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J92" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>4375</v>
+        <v>4396</v>
       </c>
       <c r="B93">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F93" s="2">
         <v>44184</v>
       </c>
       <c r="G93" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I93" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J93" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>4376</v>
+        <v>4397</v>
       </c>
       <c r="B94">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F94" s="2">
         <v>44184</v>
       </c>
       <c r="G94" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J94" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>4377</v>
+        <v>4398</v>
       </c>
       <c r="B95">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F95" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G95" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J95" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>4378</v>
+        <v>4399</v>
       </c>
       <c r="B96">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F96" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G96" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H96" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I96" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J96" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>4379</v>
+        <v>4400</v>
       </c>
       <c r="B97">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C97" t="s">
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F97" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G97" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J97" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>4380</v>
+        <v>4401</v>
       </c>
       <c r="B98">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F98" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G98" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J98" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>4381</v>
+        <v>4402</v>
       </c>
       <c r="B99">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F99" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G99" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H99" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I99" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J99" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>4382</v>
+        <v>4404</v>
       </c>
       <c r="B100">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F100" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G100" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H100" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I100" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J100" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>4383</v>
+        <v>4405</v>
       </c>
       <c r="B101">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C101" t="s">
         <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F101" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G101" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H101" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J101" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>4384</v>
+        <v>4406</v>
       </c>
       <c r="B102">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F102" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G102" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H102" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I102" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J102" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>4385</v>
+        <v>4407</v>
       </c>
       <c r="B103">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F103" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G103" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H103" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I103" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J103" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>4386</v>
+        <v>4408</v>
       </c>
       <c r="B104">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C104" t="s">
         <v>11</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F104" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G104" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H104" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J104" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>4387</v>
+        <v>4409</v>
       </c>
       <c r="B105">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C105" t="s">
         <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F105" s="2">
         <v>44184</v>
       </c>
       <c r="G105" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H105" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I105" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J105" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>4388</v>
+        <v>4410</v>
       </c>
       <c r="B106">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F106" s="2">
         <v>44184</v>
       </c>
       <c r="G106" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H106" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I106" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J106" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>4389</v>
+        <v>4411</v>
       </c>
       <c r="B107">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F107" s="2">
         <v>44184</v>
       </c>
       <c r="G107" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H107" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I107" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J107" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>4390</v>
+        <v>4412</v>
       </c>
       <c r="B108">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C108" t="s">
         <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F108" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G108" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H108" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I108" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="J108" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>4391</v>
+        <v>4413</v>
       </c>
       <c r="B109">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F109" s="2">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="G109" s="2">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="H109" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I109" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="J109" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>4392</v>
+        <v>4414</v>
       </c>
       <c r="B110">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F110" s="2">
-        <v>44184</v>
+        <v>44187</v>
       </c>
       <c r="G110" s="2">
         <v>44186</v>
       </c>
       <c r="H110" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I110" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J110" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>4393</v>
+        <v>4415</v>
       </c>
       <c r="B111">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F111" s="2">
-        <v>44184</v>
+        <v>44187</v>
       </c>
       <c r="G111" s="2">
         <v>44186</v>
       </c>
       <c r="H111" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I111" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="J111" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>4394</v>
+        <v>4416</v>
       </c>
       <c r="B112">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
         <v>39</v>
       </c>
       <c r="F112" s="2">
-        <v>44184</v>
+        <v>44187</v>
       </c>
       <c r="G112" s="2">
         <v>44186</v>
@@ -4301,126 +4280,126 @@
         <v>39</v>
       </c>
       <c r="I112" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="J112" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>4395</v>
+        <v>4417</v>
       </c>
       <c r="B113">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F113" s="2">
-        <v>44184</v>
+        <v>44187</v>
       </c>
       <c r="G113" s="2">
         <v>44186</v>
       </c>
       <c r="H113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I113" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J113" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>4396</v>
+        <v>4418</v>
       </c>
       <c r="B114">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C114" t="s">
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F114" s="2">
-        <v>44184</v>
+        <v>44187</v>
       </c>
       <c r="G114" s="2">
         <v>44186</v>
       </c>
       <c r="H114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I114" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J114" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>4397</v>
+        <v>4419</v>
       </c>
       <c r="B115">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F115" s="2">
-        <v>44184</v>
+        <v>44187</v>
       </c>
       <c r="G115" s="2">
         <v>44186</v>
       </c>
       <c r="H115" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I115" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="J115" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>4398</v>
+        <v>4420</v>
       </c>
       <c r="B116">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E116" t="s">
         <v>36</v>
       </c>
       <c r="F116" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G116" s="2">
         <v>44186</v>
@@ -4429,507 +4408,507 @@
         <v>36</v>
       </c>
       <c r="I116" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J116" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>4399</v>
+        <v>4421</v>
       </c>
       <c r="B117">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C117" t="s">
         <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F117" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G117" s="2">
         <v>44186</v>
       </c>
       <c r="H117" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I117" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="J117" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>4400</v>
+        <v>4422</v>
       </c>
       <c r="B118">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F118" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G118" s="2">
         <v>44186</v>
       </c>
       <c r="H118" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I118" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="J118" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>4401</v>
+        <v>4423</v>
       </c>
       <c r="B119">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F119" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G119" s="2">
         <v>44186</v>
       </c>
       <c r="H119" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I119" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J119" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>4402</v>
+        <v>4424</v>
       </c>
       <c r="B120">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F120" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G120" s="2">
         <v>44186</v>
       </c>
       <c r="H120" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I120" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J120" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>4403</v>
+        <v>4425</v>
       </c>
       <c r="B121">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F121" s="2">
-        <v>44182</v>
+        <v>44187</v>
       </c>
       <c r="G121" s="2">
         <v>44186</v>
       </c>
       <c r="H121" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I121" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J121" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>4404</v>
+        <v>4426</v>
       </c>
       <c r="B122">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F122" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G122" s="2">
         <v>44186</v>
       </c>
       <c r="H122" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="I122" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="J122" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>4405</v>
+        <v>4427</v>
       </c>
       <c r="B123">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F123" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G123" s="2">
         <v>44186</v>
       </c>
       <c r="H123" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I123" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J123" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>4406</v>
+        <v>4428</v>
       </c>
       <c r="B124">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F124" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G124" s="2">
         <v>44186</v>
       </c>
       <c r="H124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I124" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="J124" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>4407</v>
+        <v>4429</v>
       </c>
       <c r="B125">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F125" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G125" s="2">
         <v>44186</v>
       </c>
       <c r="H125" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I125" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="J125" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>4408</v>
+        <v>4430</v>
       </c>
       <c r="B126">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F126" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G126" s="2">
         <v>44186</v>
       </c>
       <c r="H126" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I126" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J126" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>4409</v>
+        <v>4431</v>
       </c>
       <c r="B127">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F127" s="2">
-        <v>44184</v>
+        <v>44187</v>
       </c>
       <c r="G127" s="2">
         <v>44186</v>
       </c>
       <c r="H127" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J127" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>4410</v>
+        <v>4432</v>
       </c>
       <c r="B128">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F128" s="2">
-        <v>44184</v>
+        <v>44187</v>
       </c>
       <c r="G128" s="2">
         <v>44186</v>
       </c>
       <c r="H128" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J128" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>4411</v>
+        <v>4433</v>
       </c>
       <c r="B129">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F129" s="2">
-        <v>44184</v>
+        <v>44187</v>
       </c>
       <c r="G129" s="2">
         <v>44186</v>
       </c>
       <c r="H129" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I129" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J129" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>4412</v>
+        <v>4434</v>
       </c>
       <c r="B130">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F130" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G130" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H130" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I130" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J130" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>4413</v>
+        <v>4435</v>
       </c>
       <c r="B131">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F131" s="2">
-        <v>44185</v>
+        <v>44187</v>
       </c>
       <c r="G131" s="2">
         <v>44186</v>
       </c>
       <c r="H131" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I131" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="J131" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>4414</v>
+        <v>4436</v>
       </c>
       <c r="B132">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E132" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F132" s="2">
         <v>44187</v>
@@ -4938,30 +4917,30 @@
         <v>44186</v>
       </c>
       <c r="H132" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I132" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J132" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>4415</v>
+        <v>4437</v>
       </c>
       <c r="B133">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F133" s="2">
         <v>44187</v>
@@ -4970,30 +4949,30 @@
         <v>44186</v>
       </c>
       <c r="H133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I133" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J133" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>4416</v>
+        <v>4438</v>
       </c>
       <c r="B134">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F134" s="2">
         <v>44187</v>
@@ -5002,30 +4981,27 @@
         <v>44186</v>
       </c>
       <c r="H134" t="s">
-        <v>42</v>
-      </c>
-      <c r="I134" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J134" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>4417</v>
+        <v>4439</v>
       </c>
       <c r="B135">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F135" s="2">
         <v>44187</v>
@@ -5034,30 +5010,30 @@
         <v>44186</v>
       </c>
       <c r="H135" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I135" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J135" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>4418</v>
+        <v>4440</v>
       </c>
       <c r="B136">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E136" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F136" s="2">
         <v>44187</v>
@@ -5066,30 +5042,30 @@
         <v>44186</v>
       </c>
       <c r="H136" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I136" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="J136" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>4419</v>
+        <v>4441</v>
       </c>
       <c r="B137">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F137" s="2">
         <v>44187</v>
@@ -5098,30 +5074,30 @@
         <v>44186</v>
       </c>
       <c r="H137" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I137" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J137" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>4420</v>
+        <v>4442</v>
       </c>
       <c r="B138">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F138" s="2">
         <v>44187</v>
@@ -5130,30 +5106,30 @@
         <v>44186</v>
       </c>
       <c r="H138" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I138" t="s">
         <v>82</v>
       </c>
       <c r="J138" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>4421</v>
+        <v>4443</v>
       </c>
       <c r="B139">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C139" t="s">
         <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F139" s="2">
         <v>44187</v>
@@ -5162,30 +5138,30 @@
         <v>44186</v>
       </c>
       <c r="H139" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I139" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J139" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>4422</v>
+        <v>4444</v>
       </c>
       <c r="B140">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C140" t="s">
         <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F140" s="2">
         <v>44187</v>
@@ -5194,30 +5170,30 @@
         <v>44186</v>
       </c>
       <c r="H140" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I140" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="J140" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>4423</v>
+        <v>4445</v>
       </c>
       <c r="B141">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F141" s="2">
         <v>44187</v>
@@ -5226,7 +5202,7 @@
         <v>44186</v>
       </c>
       <c r="H141" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I141" t="s">
         <v>58</v>
@@ -5237,231 +5213,231 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>4424</v>
+        <v>4446</v>
       </c>
       <c r="B142">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F142" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G142" s="2">
         <v>44186</v>
       </c>
       <c r="H142" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I142" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J142" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>4425</v>
+        <v>4447</v>
       </c>
       <c r="B143">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F143" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G143" s="2">
         <v>44186</v>
       </c>
       <c r="H143" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I143" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J143" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>4426</v>
+        <v>4448</v>
       </c>
       <c r="B144">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F144" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G144" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H144" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I144" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J144" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>4427</v>
+        <v>4449</v>
       </c>
       <c r="B145">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F145" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G145" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I145" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J145" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>4428</v>
+        <v>4450</v>
       </c>
       <c r="B146">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C146" t="s">
         <v>11</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F146" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G146" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H146" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I146" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J146" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>4429</v>
+        <v>4451</v>
       </c>
       <c r="B147">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F147" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G147" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I147" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J147" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>4430</v>
+        <v>4452</v>
       </c>
       <c r="B148">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C148" t="s">
         <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E148" t="s">
         <v>35</v>
       </c>
       <c r="F148" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G148" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H148" t="s">
         <v>35</v>
       </c>
       <c r="I148" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J148" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>4431</v>
+        <v>4453</v>
       </c>
       <c r="B149">
         <v>35</v>
@@ -5470,551 +5446,554 @@
         <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F149" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G149" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H149" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I149" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="J149" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>4432</v>
+        <v>4454</v>
       </c>
       <c r="B150">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E150" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F150" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G150" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H150" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I150" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J150" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>4433</v>
+        <v>4455</v>
       </c>
       <c r="B151">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F151" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G151" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J151" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>4434</v>
+        <v>4456</v>
       </c>
       <c r="B152">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F152" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G152" s="2">
         <v>44187</v>
       </c>
       <c r="H152" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I152" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J152" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>4435</v>
+        <v>4457</v>
       </c>
       <c r="B153">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F153" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G153" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H153" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I153" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J153" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>4436</v>
+        <v>4458</v>
       </c>
       <c r="B154">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F154" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G154" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H154" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I154" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="J154" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>4437</v>
+        <v>4459</v>
       </c>
       <c r="B155">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F155" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G155" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H155" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I155" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J155" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>4438</v>
+        <v>4460</v>
       </c>
       <c r="B156">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C156" t="s">
         <v>11</v>
       </c>
       <c r="D156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F156" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G156" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H156" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="I156" t="s">
+        <v>87</v>
       </c>
       <c r="J156" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>4439</v>
+        <v>4461</v>
       </c>
       <c r="B157">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F157" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G157" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H157" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I157" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J157" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>4440</v>
+        <v>4462</v>
       </c>
       <c r="B158">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C158" t="s">
         <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F158" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G158" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H158" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I158" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="J158" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>4441</v>
+        <v>4463</v>
       </c>
       <c r="B159">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F159" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G159" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H159" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I159" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J159" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>4442</v>
+        <v>4464</v>
       </c>
       <c r="B160">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="C160" t="s">
         <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F160" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G160" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H160" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I160" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J160" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>4443</v>
+        <v>4465</v>
       </c>
       <c r="B161">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C161" t="s">
         <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F161" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G161" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H161" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I161" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="J161" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>4444</v>
+        <v>4466</v>
       </c>
       <c r="B162">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F162" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G162" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H162" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I162" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="J162" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>4445</v>
+        <v>4467</v>
       </c>
       <c r="B163">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C163" t="s">
         <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F163" s="2">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="G163" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H163" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I163" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J163" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>4446</v>
+        <v>4468</v>
       </c>
       <c r="B164">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F164" s="2">
         <v>44188</v>
       </c>
       <c r="G164" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H164" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I164" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J164" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>4447</v>
+        <v>4469</v>
       </c>
       <c r="B165">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F165" s="2">
         <v>44188</v>
       </c>
       <c r="G165" s="2">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="H165" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I165" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="J165" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>4448</v>
+        <v>4470</v>
       </c>
       <c r="B166">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F166" s="2">
         <v>44188</v>
@@ -6023,30 +6002,30 @@
         <v>44187</v>
       </c>
       <c r="H166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I166" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J166" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>4449</v>
+        <v>4471</v>
       </c>
       <c r="B167">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F167" s="2">
         <v>44188</v>
@@ -6055,30 +6034,30 @@
         <v>44187</v>
       </c>
       <c r="H167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I167" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J167" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>4450</v>
+        <v>4472</v>
       </c>
       <c r="B168">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C168" t="s">
         <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E168" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F168" s="2">
         <v>44188</v>
@@ -6087,30 +6066,30 @@
         <v>44187</v>
       </c>
       <c r="H168" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I168" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J168" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>4451</v>
+        <v>4473</v>
       </c>
       <c r="B169">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C169" t="s">
         <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F169" s="2">
         <v>44188</v>
@@ -6119,30 +6098,30 @@
         <v>44187</v>
       </c>
       <c r="H169" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I169" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J169" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>4452</v>
+        <v>4474</v>
       </c>
       <c r="B170">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F170" s="2">
         <v>44188</v>
@@ -6151,30 +6130,30 @@
         <v>44187</v>
       </c>
       <c r="H170" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I170" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J170" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>4453</v>
+        <v>4475</v>
       </c>
       <c r="B171">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C171" t="s">
         <v>11</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E171" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F171" s="2">
         <v>44188</v>
@@ -6183,30 +6162,30 @@
         <v>44187</v>
       </c>
       <c r="H171" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I171" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="J171" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
-        <v>4454</v>
+        <v>4476</v>
       </c>
       <c r="B172">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C172" t="s">
         <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F172" s="2">
         <v>44188</v>
@@ -6215,30 +6194,30 @@
         <v>44187</v>
       </c>
       <c r="H172" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I172" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="J172" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>4455</v>
+        <v>4477</v>
       </c>
       <c r="B173">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F173" s="2">
         <v>44188</v>
@@ -6247,30 +6226,30 @@
         <v>44187</v>
       </c>
       <c r="H173" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I173" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J173" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
-        <v>4456</v>
+        <v>4478</v>
       </c>
       <c r="B174">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C174" t="s">
         <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F174" s="2">
         <v>44188</v>
@@ -6279,30 +6258,30 @@
         <v>44187</v>
       </c>
       <c r="H174" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I174" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J174" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
-        <v>4457</v>
+        <v>4479</v>
       </c>
       <c r="B175">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C175" t="s">
         <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F175" s="2">
         <v>44188</v>
@@ -6311,30 +6290,30 @@
         <v>44187</v>
       </c>
       <c r="H175" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I175" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="J175" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176" spans="1:10">
       <c r="A176">
-        <v>4458</v>
+        <v>4480</v>
       </c>
       <c r="B176">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E176" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F176" s="2">
         <v>44188</v>
@@ -6343,30 +6322,30 @@
         <v>44187</v>
       </c>
       <c r="H176" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I176" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="J176" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177">
-        <v>4459</v>
+        <v>4481</v>
       </c>
       <c r="B177">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E177" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F177" s="2">
         <v>44188</v>
@@ -6375,30 +6354,30 @@
         <v>44187</v>
       </c>
       <c r="H177" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I177" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J177" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
-        <v>4460</v>
+        <v>4482</v>
       </c>
       <c r="B178">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C178" t="s">
         <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F178" s="2">
         <v>44188</v>
@@ -6407,30 +6386,30 @@
         <v>44187</v>
       </c>
       <c r="H178" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I178" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J178" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
-        <v>4461</v>
+        <v>4483</v>
       </c>
       <c r="B179">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C179" t="s">
         <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F179" s="2">
         <v>44188</v>
@@ -6439,18 +6418,18 @@
         <v>44187</v>
       </c>
       <c r="H179" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I179" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J179" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
-        <v>4462</v>
+        <v>4484</v>
       </c>
       <c r="B180">
         <v>43</v>
@@ -6459,10 +6438,10 @@
         <v>11</v>
       </c>
       <c r="D180" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F180" s="2">
         <v>44188</v>
@@ -6471,30 +6450,30 @@
         <v>44187</v>
       </c>
       <c r="H180" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I180" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="J180" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
-        <v>4463</v>
+        <v>4485</v>
       </c>
       <c r="B181">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C181" t="s">
         <v>11</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F181" s="2">
         <v>44188</v>
@@ -6503,30 +6482,30 @@
         <v>44187</v>
       </c>
       <c r="H181" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I181" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J181" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
-        <v>4464</v>
+        <v>4486</v>
       </c>
       <c r="B182">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D182" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F182" s="2">
         <v>44188</v>
@@ -6535,30 +6514,30 @@
         <v>44187</v>
       </c>
       <c r="H182" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I182" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J182" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
-        <v>4465</v>
+        <v>4487</v>
       </c>
       <c r="B183">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C183" t="s">
         <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F183" s="2">
         <v>44188</v>
@@ -6567,30 +6546,30 @@
         <v>44187</v>
       </c>
       <c r="H183" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I183" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="J183" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
-        <v>4466</v>
+        <v>4488</v>
       </c>
       <c r="B184">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E184" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F184" s="2">
         <v>44188</v>
@@ -6599,30 +6578,30 @@
         <v>44187</v>
       </c>
       <c r="H184" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I184" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="J184" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:10">
       <c r="A185">
-        <v>4467</v>
+        <v>4489</v>
       </c>
       <c r="B185">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E185" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F185" s="2">
         <v>44188</v>
@@ -6631,717 +6610,13 @@
         <v>44187</v>
       </c>
       <c r="H185" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I185" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J185" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
-      <c r="A186">
-        <v>4468</v>
-      </c>
-      <c r="B186">
-        <v>48</v>
-      </c>
-      <c r="C186" t="s">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s">
-        <v>24</v>
-      </c>
-      <c r="E186" t="s">
-        <v>52</v>
-      </c>
-      <c r="F186" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G186" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H186" t="s">
-        <v>52</v>
-      </c>
-      <c r="I186" t="s">
-        <v>57</v>
-      </c>
-      <c r="J186" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
-      <c r="A187">
-        <v>4469</v>
-      </c>
-      <c r="B187">
-        <v>17</v>
-      </c>
-      <c r="C187" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s">
-        <v>13</v>
-      </c>
-      <c r="E187" t="s">
-        <v>43</v>
-      </c>
-      <c r="F187" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G187" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H187" t="s">
-        <v>43</v>
-      </c>
-      <c r="I187" t="s">
-        <v>98</v>
-      </c>
-      <c r="J187" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
-      <c r="A188">
-        <v>4470</v>
-      </c>
-      <c r="B188">
-        <v>43</v>
-      </c>
-      <c r="C188" t="s">
-        <v>10</v>
-      </c>
-      <c r="D188" t="s">
-        <v>13</v>
-      </c>
-      <c r="E188" t="s">
-        <v>43</v>
-      </c>
-      <c r="F188" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G188" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H188" t="s">
-        <v>43</v>
-      </c>
-      <c r="I188" t="s">
-        <v>98</v>
-      </c>
-      <c r="J188" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
-      <c r="A189">
-        <v>4471</v>
-      </c>
-      <c r="B189">
-        <v>39</v>
-      </c>
-      <c r="C189" t="s">
-        <v>10</v>
-      </c>
-      <c r="D189" t="s">
-        <v>13</v>
-      </c>
-      <c r="E189" t="s">
-        <v>43</v>
-      </c>
-      <c r="F189" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G189" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H189" t="s">
-        <v>43</v>
-      </c>
-      <c r="I189" t="s">
-        <v>98</v>
-      </c>
-      <c r="J189" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
-      <c r="A190">
-        <v>4472</v>
-      </c>
-      <c r="B190">
-        <v>50</v>
-      </c>
-      <c r="C190" t="s">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s">
-        <v>19</v>
-      </c>
-      <c r="E190" t="s">
-        <v>37</v>
-      </c>
-      <c r="F190" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G190" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H190" t="s">
-        <v>37</v>
-      </c>
-      <c r="I190" t="s">
-        <v>66</v>
-      </c>
-      <c r="J190" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
-      <c r="A191">
-        <v>4473</v>
-      </c>
-      <c r="B191">
-        <v>52</v>
-      </c>
-      <c r="C191" t="s">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s">
-        <v>13</v>
-      </c>
-      <c r="E191" t="s">
-        <v>43</v>
-      </c>
-      <c r="F191" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G191" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H191" t="s">
-        <v>43</v>
-      </c>
-      <c r="I191" t="s">
-        <v>80</v>
-      </c>
-      <c r="J191" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
-      <c r="A192">
-        <v>4474</v>
-      </c>
-      <c r="B192">
-        <v>36</v>
-      </c>
-      <c r="C192" t="s">
-        <v>10</v>
-      </c>
-      <c r="D192" t="s">
-        <v>13</v>
-      </c>
-      <c r="E192" t="s">
-        <v>37</v>
-      </c>
-      <c r="F192" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G192" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H192" t="s">
-        <v>37</v>
-      </c>
-      <c r="I192" t="s">
-        <v>57</v>
-      </c>
-      <c r="J192" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
-      <c r="A193">
-        <v>4475</v>
-      </c>
-      <c r="B193">
-        <v>51</v>
-      </c>
-      <c r="C193" t="s">
-        <v>10</v>
-      </c>
-      <c r="D193" t="s">
-        <v>18</v>
-      </c>
-      <c r="E193" t="s">
-        <v>35</v>
-      </c>
-      <c r="F193" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G193" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H193" t="s">
-        <v>35</v>
-      </c>
-      <c r="I193" t="s">
-        <v>61</v>
-      </c>
-      <c r="J193" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
-      <c r="A194">
-        <v>4476</v>
-      </c>
-      <c r="B194">
-        <v>80</v>
-      </c>
-      <c r="C194" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s">
-        <v>13</v>
-      </c>
-      <c r="E194" t="s">
-        <v>43</v>
-      </c>
-      <c r="F194" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G194" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H194" t="s">
-        <v>43</v>
-      </c>
-      <c r="I194" t="s">
-        <v>99</v>
-      </c>
-      <c r="J194" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
-      <c r="A195">
-        <v>4477</v>
-      </c>
-      <c r="B195">
-        <v>59</v>
-      </c>
-      <c r="C195" t="s">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s">
-        <v>13</v>
-      </c>
-      <c r="E195" t="s">
-        <v>33</v>
-      </c>
-      <c r="F195" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G195" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H195" t="s">
-        <v>55</v>
-      </c>
-      <c r="I195" t="s">
         <v>100</v>
-      </c>
-      <c r="J195" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
-      <c r="A196">
-        <v>4478</v>
-      </c>
-      <c r="B196">
-        <v>48</v>
-      </c>
-      <c r="C196" t="s">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s">
-        <v>13</v>
-      </c>
-      <c r="E196" t="s">
-        <v>33</v>
-      </c>
-      <c r="F196" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G196" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H196" t="s">
-        <v>55</v>
-      </c>
-      <c r="I196" t="s">
-        <v>101</v>
-      </c>
-      <c r="J196" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
-      <c r="A197">
-        <v>4479</v>
-      </c>
-      <c r="B197">
-        <v>37</v>
-      </c>
-      <c r="C197" t="s">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s">
-        <v>13</v>
-      </c>
-      <c r="E197" t="s">
-        <v>33</v>
-      </c>
-      <c r="F197" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G197" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H197" t="s">
-        <v>55</v>
-      </c>
-      <c r="I197" t="s">
-        <v>102</v>
-      </c>
-      <c r="J197" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
-      <c r="A198">
-        <v>4480</v>
-      </c>
-      <c r="B198">
-        <v>51</v>
-      </c>
-      <c r="C198" t="s">
-        <v>10</v>
-      </c>
-      <c r="D198" t="s">
-        <v>32</v>
-      </c>
-      <c r="E198" t="s">
-        <v>33</v>
-      </c>
-      <c r="F198" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G198" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H198" t="s">
-        <v>55</v>
-      </c>
-      <c r="I198" t="s">
-        <v>69</v>
-      </c>
-      <c r="J198" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
-      <c r="A199">
-        <v>4481</v>
-      </c>
-      <c r="B199">
-        <v>48</v>
-      </c>
-      <c r="C199" t="s">
-        <v>10</v>
-      </c>
-      <c r="D199" t="s">
-        <v>13</v>
-      </c>
-      <c r="E199" t="s">
-        <v>33</v>
-      </c>
-      <c r="F199" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G199" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H199" t="s">
-        <v>55</v>
-      </c>
-      <c r="I199" t="s">
-        <v>87</v>
-      </c>
-      <c r="J199" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
-      <c r="A200">
-        <v>4482</v>
-      </c>
-      <c r="B200">
-        <v>29</v>
-      </c>
-      <c r="C200" t="s">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s">
-        <v>13</v>
-      </c>
-      <c r="E200" t="s">
-        <v>40</v>
-      </c>
-      <c r="F200" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G200" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H200" t="s">
-        <v>40</v>
-      </c>
-      <c r="I200" t="s">
-        <v>103</v>
-      </c>
-      <c r="J200" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
-      <c r="A201">
-        <v>4483</v>
-      </c>
-      <c r="B201">
-        <v>32</v>
-      </c>
-      <c r="C201" t="s">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s">
-        <v>13</v>
-      </c>
-      <c r="E201" t="s">
-        <v>40</v>
-      </c>
-      <c r="F201" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G201" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H201" t="s">
-        <v>40</v>
-      </c>
-      <c r="I201" t="s">
-        <v>103</v>
-      </c>
-      <c r="J201" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
-      <c r="A202">
-        <v>4484</v>
-      </c>
-      <c r="B202">
-        <v>43</v>
-      </c>
-      <c r="C202" t="s">
-        <v>10</v>
-      </c>
-      <c r="D202" t="s">
-        <v>13</v>
-      </c>
-      <c r="E202" t="s">
-        <v>53</v>
-      </c>
-      <c r="F202" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G202" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H202" t="s">
-        <v>53</v>
-      </c>
-      <c r="I202" t="s">
-        <v>104</v>
-      </c>
-      <c r="J202" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
-      <c r="A203">
-        <v>4485</v>
-      </c>
-      <c r="B203">
-        <v>43</v>
-      </c>
-      <c r="C203" t="s">
-        <v>10</v>
-      </c>
-      <c r="D203" t="s">
-        <v>13</v>
-      </c>
-      <c r="E203" t="s">
-        <v>53</v>
-      </c>
-      <c r="F203" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G203" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H203" t="s">
-        <v>36</v>
-      </c>
-      <c r="I203" t="s">
-        <v>57</v>
-      </c>
-      <c r="J203" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
-      <c r="A204">
-        <v>4486</v>
-      </c>
-      <c r="B204">
-        <v>37</v>
-      </c>
-      <c r="C204" t="s">
-        <v>10</v>
-      </c>
-      <c r="D204" t="s">
-        <v>24</v>
-      </c>
-      <c r="E204" t="s">
-        <v>33</v>
-      </c>
-      <c r="F204" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G204" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H204" t="s">
-        <v>55</v>
-      </c>
-      <c r="I204" t="s">
-        <v>100</v>
-      </c>
-      <c r="J204" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
-      <c r="A205">
-        <v>4487</v>
-      </c>
-      <c r="B205">
-        <v>28</v>
-      </c>
-      <c r="C205" t="s">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s">
-        <v>13</v>
-      </c>
-      <c r="E205" t="s">
-        <v>41</v>
-      </c>
-      <c r="F205" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G205" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H205" t="s">
-        <v>41</v>
-      </c>
-      <c r="I205" t="s">
-        <v>79</v>
-      </c>
-      <c r="J205" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
-      <c r="A206">
-        <v>4488</v>
-      </c>
-      <c r="B206">
-        <v>31</v>
-      </c>
-      <c r="C206" t="s">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s">
-        <v>24</v>
-      </c>
-      <c r="E206" t="s">
-        <v>41</v>
-      </c>
-      <c r="F206" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G206" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H206" t="s">
-        <v>41</v>
-      </c>
-      <c r="I206" t="s">
-        <v>79</v>
-      </c>
-      <c r="J206" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
-      <c r="A207">
-        <v>4489</v>
-      </c>
-      <c r="B207">
-        <v>24</v>
-      </c>
-      <c r="C207" t="s">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s">
-        <v>13</v>
-      </c>
-      <c r="E207" t="s">
-        <v>54</v>
-      </c>
-      <c r="F207" s="2">
-        <v>44188</v>
-      </c>
-      <c r="G207" s="2">
-        <v>44187</v>
-      </c>
-      <c r="H207" t="s">
-        <v>36</v>
-      </c>
-      <c r="I207" t="s">
-        <v>57</v>
-      </c>
-      <c r="J207" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/RecentWeekAlert_Data🔥/xlsx/data-gov-week.xlsx
+++ b/RecentWeekAlert_Data🔥/xlsx/data-gov-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="142">
   <si>
     <t>no</t>
   </si>
@@ -106,6 +106,9 @@
     <t>china</t>
   </si>
   <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
     <t>สมุทรปราการ</t>
   </si>
   <si>
@@ -172,9 +175,39 @@
     <t>ขอนแก่น</t>
   </si>
   <si>
+    <t>สุราษฎร์ธานี</t>
+  </si>
+  <si>
+    <t>นครศรีธรรมราช</t>
+  </si>
+  <si>
+    <t>ชัยนาท</t>
+  </si>
+  <si>
+    <t>พิจิตร</t>
+  </si>
+  <si>
+    <t>ชัยภูมิ</t>
+  </si>
+  <si>
+    <t>อ่างทอง</t>
+  </si>
+  <si>
+    <t>อุดรธานี</t>
+  </si>
+  <si>
+    <t>สมุทรสงคราม</t>
+  </si>
+  <si>
+    <t>นครสวรรค์</t>
+  </si>
+  <si>
     <t>กรุงเทพมหานคร</t>
   </si>
   <si>
+    <t>ระยอง</t>
+  </si>
+  <si>
     <t>บางบ่อ</t>
   </si>
   <si>
@@ -310,6 +343,69 @@
     <t>ขาณุวรลักษบุรี</t>
   </si>
   <si>
+    <t>บ้านเเพ้ว</t>
+  </si>
+  <si>
+    <t>สายไหม</t>
+  </si>
+  <si>
+    <t>พุนพิน</t>
+  </si>
+  <si>
+    <t>ท่าศาลา</t>
+  </si>
+  <si>
+    <t>วชิรบารมี</t>
+  </si>
+  <si>
+    <t>น้ำปาด</t>
+  </si>
+  <si>
+    <t>โกรกกราก</t>
+  </si>
+  <si>
+    <t>สุรวงค์</t>
+  </si>
+  <si>
+    <t>พานทอง</t>
+  </si>
+  <si>
+    <t>พระสมุทรเจดีย์</t>
+  </si>
+  <si>
+    <t>บัวใหญ่</t>
+  </si>
+  <si>
+    <t>ภูเขียว</t>
+  </si>
+  <si>
+    <t>ลาดหลุมแก้ว</t>
+  </si>
+  <si>
+    <t>สีคิ้ว</t>
+  </si>
+  <si>
+    <t>บางเสาธง</t>
+  </si>
+  <si>
+    <t>พระราม2</t>
+  </si>
+  <si>
+    <t>บางหญ้าเเพรก</t>
+  </si>
+  <si>
+    <t>บางกรวย</t>
+  </si>
+  <si>
+    <t>บางใหญ่</t>
+  </si>
+  <si>
+    <t>บางใหญ่่</t>
+  </si>
+  <si>
+    <t>บางบัวทอง</t>
+  </si>
+  <si>
     <t>ผู้ที่เดินทางมาจากต่างประเทศ และเข้า ASQ/ALQ</t>
   </si>
   <si>
@@ -335,6 +431,15 @@
   </si>
   <si>
     <t>ไปสถานที่แออัด เช่น งานแฟร์ คอนเสิร์ต</t>
+  </si>
+  <si>
+    <t>Cluster สมุทรสาคร</t>
+  </si>
+  <si>
+    <t>คนต่างชาติเดินทางมาจากต่างประเทศ</t>
+  </si>
+  <si>
+    <t>คนไทยเดินทางกลับจากต่างประเทศ</t>
   </si>
 </sst>
 </file>
@@ -696,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J185"/>
+  <dimension ref="A1:J252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>44183</v>
@@ -757,13 +862,13 @@
         <v>44184</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -780,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2">
         <v>44183</v>
@@ -789,13 +894,13 @@
         <v>44184</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -812,7 +917,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
         <v>44183</v>
@@ -821,13 +926,13 @@
         <v>44184</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -844,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
         <v>44183</v>
@@ -853,13 +958,13 @@
         <v>44184</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -876,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>44183</v>
@@ -885,13 +990,13 @@
         <v>44184</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -908,7 +1013,7 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>44183</v>
@@ -917,13 +1022,13 @@
         <v>44184</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -940,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2">
         <v>44183</v>
@@ -949,13 +1054,13 @@
         <v>44184</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -972,7 +1077,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
         <v>44183</v>
@@ -981,13 +1086,13 @@
         <v>44184</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1004,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2">
         <v>44183</v>
@@ -1013,13 +1118,13 @@
         <v>44184</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1036,7 +1141,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
         <v>44183</v>
@@ -1045,13 +1150,13 @@
         <v>44184</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1068,7 +1173,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
         <v>44183</v>
@@ -1077,13 +1182,13 @@
         <v>44184</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1100,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2">
         <v>44183</v>
@@ -1109,13 +1214,13 @@
         <v>44184</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1132,7 +1237,7 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2">
         <v>44183</v>
@@ -1141,13 +1246,13 @@
         <v>44184</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1164,7 +1269,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2">
         <v>44183</v>
@@ -1173,13 +1278,13 @@
         <v>44184</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1196,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2">
         <v>44183</v>
@@ -1205,13 +1310,13 @@
         <v>44184</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1228,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2">
         <v>44183</v>
@@ -1237,13 +1342,13 @@
         <v>44184</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1260,7 +1365,7 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2">
         <v>44183</v>
@@ -1269,13 +1374,13 @@
         <v>44184</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1292,7 +1397,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2">
         <v>44183</v>
@@ -1301,13 +1406,13 @@
         <v>44184</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1324,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" s="2">
         <v>44183</v>
@@ -1333,13 +1438,13 @@
         <v>44184</v>
       </c>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1356,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" s="2">
         <v>44183</v>
@@ -1365,13 +1470,13 @@
         <v>44184</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1388,7 +1493,7 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" s="2">
         <v>44183</v>
@@ -1397,13 +1502,13 @@
         <v>44184</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1420,7 +1525,7 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23" s="2">
         <v>44183</v>
@@ -1429,13 +1534,13 @@
         <v>44184</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1452,7 +1557,7 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" s="2">
         <v>44183</v>
@@ -1461,13 +1566,13 @@
         <v>44184</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1484,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F25" s="2">
         <v>44183</v>
@@ -1493,13 +1598,13 @@
         <v>44184</v>
       </c>
       <c r="H25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1516,7 +1621,7 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" s="2">
         <v>44183</v>
@@ -1525,13 +1630,13 @@
         <v>44184</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1548,7 +1653,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F27" s="2">
         <v>44183</v>
@@ -1557,13 +1662,13 @@
         <v>44184</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1580,7 +1685,7 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" s="2">
         <v>44183</v>
@@ -1589,13 +1694,13 @@
         <v>44184</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1612,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F29" s="2">
         <v>44183</v>
@@ -1621,13 +1726,13 @@
         <v>44184</v>
       </c>
       <c r="H29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1644,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F30" s="2">
         <v>44183</v>
@@ -1653,13 +1758,13 @@
         <v>44185</v>
       </c>
       <c r="H30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1676,7 +1781,7 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F31" s="2">
         <v>44183</v>
@@ -1685,13 +1790,13 @@
         <v>44185</v>
       </c>
       <c r="H31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J31" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1708,7 +1813,7 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2">
         <v>44184</v>
@@ -1717,13 +1822,13 @@
         <v>44185</v>
       </c>
       <c r="H32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J32" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1740,7 +1845,7 @@
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F33" s="2">
         <v>44184</v>
@@ -1749,13 +1854,13 @@
         <v>44185</v>
       </c>
       <c r="H33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1772,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2">
         <v>44183</v>
@@ -1781,13 +1886,13 @@
         <v>44185</v>
       </c>
       <c r="H34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1804,7 +1909,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2">
         <v>44183</v>
@@ -1813,13 +1918,13 @@
         <v>44185</v>
       </c>
       <c r="H35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1836,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2">
         <v>44185</v>
@@ -1845,13 +1950,13 @@
         <v>44185</v>
       </c>
       <c r="H36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J36" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1868,7 +1973,7 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" s="2">
         <v>44184</v>
@@ -1877,13 +1982,13 @@
         <v>44185</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1900,7 +2005,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38" s="2">
         <v>44184</v>
@@ -1909,13 +2014,13 @@
         <v>44185</v>
       </c>
       <c r="H38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I38" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J38" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1932,7 +2037,7 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2">
         <v>44184</v>
@@ -1941,13 +2046,13 @@
         <v>44185</v>
       </c>
       <c r="H39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1964,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2">
         <v>44184</v>
@@ -1973,13 +2078,13 @@
         <v>44185</v>
       </c>
       <c r="H40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J40" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1996,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" s="2">
         <v>44184</v>
@@ -2005,13 +2110,13 @@
         <v>44185</v>
       </c>
       <c r="H41" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2028,7 +2133,7 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F42" s="2">
         <v>44184</v>
@@ -2037,13 +2142,13 @@
         <v>44185</v>
       </c>
       <c r="H42" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2060,7 +2165,7 @@
         <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F43" s="2">
         <v>44184</v>
@@ -2069,13 +2174,13 @@
         <v>44185</v>
       </c>
       <c r="H43" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J43" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2092,7 +2197,7 @@
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F44" s="2">
         <v>44184</v>
@@ -2101,13 +2206,13 @@
         <v>44185</v>
       </c>
       <c r="H44" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2124,7 +2229,7 @@
         <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F45" s="2">
         <v>44184</v>
@@ -2133,13 +2238,13 @@
         <v>44185</v>
       </c>
       <c r="H45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I45" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J45" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2156,7 +2261,7 @@
         <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F46" s="2">
         <v>44184</v>
@@ -2165,13 +2270,13 @@
         <v>44185</v>
       </c>
       <c r="H46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I46" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2188,7 +2293,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F47" s="2">
         <v>44184</v>
@@ -2197,13 +2302,13 @@
         <v>44185</v>
       </c>
       <c r="H47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I47" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J47" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2220,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F48" s="2">
         <v>44184</v>
@@ -2229,13 +2334,13 @@
         <v>44185</v>
       </c>
       <c r="H48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I48" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J48" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2252,7 +2357,7 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F49" s="2">
         <v>44184</v>
@@ -2261,13 +2366,13 @@
         <v>44185</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2284,7 +2389,7 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F50" s="2">
         <v>44184</v>
@@ -2293,13 +2398,13 @@
         <v>44185</v>
       </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I50" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J50" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2316,7 +2421,7 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F51" s="2">
         <v>44184</v>
@@ -2325,13 +2430,13 @@
         <v>44185</v>
       </c>
       <c r="H51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2348,7 +2453,7 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F52" s="2">
         <v>44184</v>
@@ -2357,13 +2462,13 @@
         <v>44185</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2380,7 +2485,7 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F53" s="2">
         <v>44184</v>
@@ -2389,13 +2494,13 @@
         <v>44185</v>
       </c>
       <c r="H53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2412,7 +2517,7 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F54" s="2">
         <v>44184</v>
@@ -2421,13 +2526,13 @@
         <v>44185</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J54" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2444,7 +2549,7 @@
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F55" s="2">
         <v>44184</v>
@@ -2453,13 +2558,13 @@
         <v>44185</v>
       </c>
       <c r="H55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I55" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J55" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2476,7 +2581,7 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F56" s="2">
         <v>44184</v>
@@ -2485,13 +2590,13 @@
         <v>44185</v>
       </c>
       <c r="H56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I56" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J56" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2508,7 +2613,7 @@
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F57" s="2">
         <v>44184</v>
@@ -2517,13 +2622,13 @@
         <v>44185</v>
       </c>
       <c r="H57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I57" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J57" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2540,7 +2645,7 @@
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F58" s="2">
         <v>44184</v>
@@ -2549,13 +2654,13 @@
         <v>44185</v>
       </c>
       <c r="H58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I58" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J58" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2572,7 +2677,7 @@
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F59" s="2">
         <v>44184</v>
@@ -2581,13 +2686,13 @@
         <v>44185</v>
       </c>
       <c r="H59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I59" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J59" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2604,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F60" s="2">
         <v>44184</v>
@@ -2613,13 +2718,13 @@
         <v>44185</v>
       </c>
       <c r="H60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J60" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2636,7 +2741,7 @@
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F61" s="2">
         <v>44184</v>
@@ -2645,13 +2750,13 @@
         <v>44185</v>
       </c>
       <c r="H61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I61" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J61" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2668,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F62" s="2">
         <v>44184</v>
@@ -2677,13 +2782,13 @@
         <v>44185</v>
       </c>
       <c r="H62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I62" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J62" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2700,7 +2805,7 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F63" s="2">
         <v>44184</v>
@@ -2709,13 +2814,13 @@
         <v>44185</v>
       </c>
       <c r="H63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I63" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J63" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2732,7 +2837,7 @@
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F64" s="2">
         <v>44184</v>
@@ -2741,13 +2846,13 @@
         <v>44185</v>
       </c>
       <c r="H64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I64" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J64" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2764,7 +2869,7 @@
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F65" s="2">
         <v>44184</v>
@@ -2773,13 +2878,13 @@
         <v>44185</v>
       </c>
       <c r="H65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I65" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J65" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2796,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F66" s="2">
         <v>44184</v>
@@ -2805,13 +2910,13 @@
         <v>44185</v>
       </c>
       <c r="H66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I66" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J66" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2828,7 +2933,7 @@
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F67" s="2">
         <v>44184</v>
@@ -2837,13 +2942,13 @@
         <v>44185</v>
       </c>
       <c r="H67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I67" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J67" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2860,7 +2965,7 @@
         <v>12</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F68" s="2">
         <v>44184</v>
@@ -2869,13 +2974,13 @@
         <v>44185</v>
       </c>
       <c r="H68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I68" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2892,7 +2997,7 @@
         <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F69" s="2">
         <v>44184</v>
@@ -2901,13 +3006,13 @@
         <v>44185</v>
       </c>
       <c r="H69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I69" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J69" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2924,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F70" s="2">
         <v>44184</v>
@@ -2933,13 +3038,13 @@
         <v>44185</v>
       </c>
       <c r="H70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I70" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J70" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2956,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F71" s="2">
         <v>44184</v>
@@ -2965,13 +3070,13 @@
         <v>44185</v>
       </c>
       <c r="H71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I71" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J71" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2988,7 +3093,7 @@
         <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F72" s="2">
         <v>44184</v>
@@ -2997,13 +3102,13 @@
         <v>44185</v>
       </c>
       <c r="H72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I72" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J72" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3020,7 +3125,7 @@
         <v>12</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F73" s="2">
         <v>44184</v>
@@ -3029,13 +3134,13 @@
         <v>44185</v>
       </c>
       <c r="H73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I73" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J73" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3052,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F74" s="2">
         <v>44184</v>
@@ -3061,13 +3166,13 @@
         <v>44185</v>
       </c>
       <c r="H74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I74" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J74" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3084,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F75" s="2">
         <v>44184</v>
@@ -3093,13 +3198,13 @@
         <v>44185</v>
       </c>
       <c r="H75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I75" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J75" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3116,7 +3221,7 @@
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F76" s="2">
         <v>44184</v>
@@ -3125,13 +3230,13 @@
         <v>44185</v>
       </c>
       <c r="H76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I76" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J76" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3148,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F77" s="2">
         <v>44184</v>
@@ -3157,13 +3262,13 @@
         <v>44185</v>
       </c>
       <c r="H77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I77" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J77" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3180,7 +3285,7 @@
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" s="2">
         <v>44184</v>
@@ -3189,13 +3294,13 @@
         <v>44185</v>
       </c>
       <c r="H78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I78" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J78" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3212,7 +3317,7 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F79" s="2">
         <v>44184</v>
@@ -3221,13 +3326,13 @@
         <v>44185</v>
       </c>
       <c r="H79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I79" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J79" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3244,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F80" s="2">
         <v>44184</v>
@@ -3253,13 +3358,13 @@
         <v>44185</v>
       </c>
       <c r="H80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I80" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J80" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3276,7 +3381,7 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F81" s="2">
         <v>44184</v>
@@ -3285,13 +3390,13 @@
         <v>44185</v>
       </c>
       <c r="H81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I81" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J81" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3308,7 +3413,7 @@
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F82" s="2">
         <v>44184</v>
@@ -3317,13 +3422,13 @@
         <v>44185</v>
       </c>
       <c r="H82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I82" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J82" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3340,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F83" s="2">
         <v>44184</v>
@@ -3349,13 +3454,13 @@
         <v>44185</v>
       </c>
       <c r="H83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I83" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J83" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3372,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F84" s="2">
         <v>44184</v>
@@ -3381,13 +3486,13 @@
         <v>44185</v>
       </c>
       <c r="H84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I84" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J84" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3404,7 +3509,7 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F85" s="2">
         <v>44184</v>
@@ -3413,13 +3518,13 @@
         <v>44185</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I85" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J85" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3436,7 +3541,7 @@
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F86" s="2">
         <v>44184</v>
@@ -3445,13 +3550,13 @@
         <v>44185</v>
       </c>
       <c r="H86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I86" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J86" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3468,7 +3573,7 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F87" s="2">
         <v>44184</v>
@@ -3477,13 +3582,13 @@
         <v>44185</v>
       </c>
       <c r="H87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I87" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J87" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3500,7 +3605,7 @@
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F88" s="2">
         <v>44184</v>
@@ -3509,13 +3614,13 @@
         <v>44185</v>
       </c>
       <c r="H88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I88" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J88" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3532,7 +3637,7 @@
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F89" s="2">
         <v>44184</v>
@@ -3541,13 +3646,13 @@
         <v>44186</v>
       </c>
       <c r="H89" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I89" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J89" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3564,7 +3669,7 @@
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F90" s="2">
         <v>44184</v>
@@ -3573,13 +3678,13 @@
         <v>44186</v>
       </c>
       <c r="H90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I90" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J90" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3596,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F91" s="2">
         <v>44184</v>
@@ -3605,13 +3710,13 @@
         <v>44186</v>
       </c>
       <c r="H91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I91" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J91" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3628,7 +3733,7 @@
         <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F92" s="2">
         <v>44184</v>
@@ -3637,13 +3742,13 @@
         <v>44186</v>
       </c>
       <c r="H92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I92" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J92" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3660,7 +3765,7 @@
         <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F93" s="2">
         <v>44184</v>
@@ -3669,13 +3774,13 @@
         <v>44186</v>
       </c>
       <c r="H93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I93" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="J93" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3692,7 +3797,7 @@
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F94" s="2">
         <v>44184</v>
@@ -3701,13 +3806,13 @@
         <v>44186</v>
       </c>
       <c r="H94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I94" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J94" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3724,7 +3829,7 @@
         <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F95" s="2">
         <v>44185</v>
@@ -3733,13 +3838,13 @@
         <v>44186</v>
       </c>
       <c r="H95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I95" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J95" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3756,7 +3861,7 @@
         <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F96" s="2">
         <v>44185</v>
@@ -3765,13 +3870,13 @@
         <v>44186</v>
       </c>
       <c r="H96" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I96" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J96" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3788,7 +3893,7 @@
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F97" s="2">
         <v>44185</v>
@@ -3797,13 +3902,13 @@
         <v>44186</v>
       </c>
       <c r="H97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I97" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J97" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3820,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F98" s="2">
         <v>44185</v>
@@ -3829,13 +3934,13 @@
         <v>44186</v>
       </c>
       <c r="H98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I98" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J98" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3852,7 +3957,7 @@
         <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F99" s="2">
         <v>44185</v>
@@ -3861,13 +3966,13 @@
         <v>44186</v>
       </c>
       <c r="H99" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I99" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J99" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3884,7 +3989,7 @@
         <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F100" s="2">
         <v>44185</v>
@@ -3893,13 +3998,13 @@
         <v>44186</v>
       </c>
       <c r="H100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I100" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J100" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3916,7 +4021,7 @@
         <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F101" s="2">
         <v>44185</v>
@@ -3925,13 +4030,13 @@
         <v>44186</v>
       </c>
       <c r="H101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I101" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J101" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3948,7 +4053,7 @@
         <v>12</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F102" s="2">
         <v>44185</v>
@@ -3957,13 +4062,13 @@
         <v>44186</v>
       </c>
       <c r="H102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I102" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J102" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3980,7 +4085,7 @@
         <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F103" s="2">
         <v>44185</v>
@@ -3989,13 +4094,13 @@
         <v>44186</v>
       </c>
       <c r="H103" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I103" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="J103" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4012,7 +4117,7 @@
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F104" s="2">
         <v>44185</v>
@@ -4021,13 +4126,13 @@
         <v>44186</v>
       </c>
       <c r="H104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I104" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J104" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4044,7 +4149,7 @@
         <v>12</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F105" s="2">
         <v>44184</v>
@@ -4053,13 +4158,13 @@
         <v>44186</v>
       </c>
       <c r="H105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I105" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J105" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4076,7 +4181,7 @@
         <v>24</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F106" s="2">
         <v>44184</v>
@@ -4085,13 +4190,13 @@
         <v>44186</v>
       </c>
       <c r="H106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I106" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J106" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4108,7 +4213,7 @@
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F107" s="2">
         <v>44184</v>
@@ -4117,13 +4222,13 @@
         <v>44186</v>
       </c>
       <c r="H107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I107" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J107" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4140,7 +4245,7 @@
         <v>12</v>
       </c>
       <c r="E108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F108" s="2">
         <v>44185</v>
@@ -4149,13 +4254,13 @@
         <v>44186</v>
       </c>
       <c r="H108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I108" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J108" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4172,7 +4277,7 @@
         <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F109" s="2">
         <v>44185</v>
@@ -4181,13 +4286,13 @@
         <v>44186</v>
       </c>
       <c r="H109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I109" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J109" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4204,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F110" s="2">
         <v>44187</v>
@@ -4213,13 +4318,13 @@
         <v>44186</v>
       </c>
       <c r="H110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I110" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J110" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4236,7 +4341,7 @@
         <v>12</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F111" s="2">
         <v>44187</v>
@@ -4245,13 +4350,13 @@
         <v>44186</v>
       </c>
       <c r="H111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I111" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J111" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4268,7 +4373,7 @@
         <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F112" s="2">
         <v>44187</v>
@@ -4277,13 +4382,13 @@
         <v>44186</v>
       </c>
       <c r="H112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I112" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J112" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4300,7 +4405,7 @@
         <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F113" s="2">
         <v>44187</v>
@@ -4309,13 +4414,13 @@
         <v>44186</v>
       </c>
       <c r="H113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I113" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J113" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4332,7 +4437,7 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F114" s="2">
         <v>44187</v>
@@ -4341,13 +4446,13 @@
         <v>44186</v>
       </c>
       <c r="H114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I114" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J114" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4364,7 +4469,7 @@
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F115" s="2">
         <v>44187</v>
@@ -4373,13 +4478,13 @@
         <v>44186</v>
       </c>
       <c r="H115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I115" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J115" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4396,7 +4501,7 @@
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F116" s="2">
         <v>44187</v>
@@ -4405,13 +4510,13 @@
         <v>44186</v>
       </c>
       <c r="H116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I116" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J116" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4428,7 +4533,7 @@
         <v>25</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F117" s="2">
         <v>44187</v>
@@ -4437,13 +4542,13 @@
         <v>44186</v>
       </c>
       <c r="H117" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I117" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J117" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4460,7 +4565,7 @@
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F118" s="2">
         <v>44187</v>
@@ -4469,13 +4574,13 @@
         <v>44186</v>
       </c>
       <c r="H118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I118" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J118" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4492,7 +4597,7 @@
         <v>26</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F119" s="2">
         <v>44187</v>
@@ -4501,13 +4606,13 @@
         <v>44186</v>
       </c>
       <c r="H119" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I119" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J119" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4524,7 +4629,7 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F120" s="2">
         <v>44187</v>
@@ -4533,13 +4638,13 @@
         <v>44186</v>
       </c>
       <c r="H120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I120" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J120" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4556,7 +4661,7 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F121" s="2">
         <v>44187</v>
@@ -4565,13 +4670,13 @@
         <v>44186</v>
       </c>
       <c r="H121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I121" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J121" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4588,7 +4693,7 @@
         <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F122" s="2">
         <v>44187</v>
@@ -4597,13 +4702,13 @@
         <v>44186</v>
       </c>
       <c r="H122" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I122" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J122" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4620,7 +4725,7 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F123" s="2">
         <v>44187</v>
@@ -4629,13 +4734,13 @@
         <v>44186</v>
       </c>
       <c r="H123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I123" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J123" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4652,7 +4757,7 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F124" s="2">
         <v>44187</v>
@@ -4661,13 +4766,13 @@
         <v>44186</v>
       </c>
       <c r="H124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I124" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J124" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4684,7 +4789,7 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F125" s="2">
         <v>44187</v>
@@ -4693,13 +4798,13 @@
         <v>44186</v>
       </c>
       <c r="H125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I125" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J125" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4716,7 +4821,7 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F126" s="2">
         <v>44187</v>
@@ -4725,13 +4830,13 @@
         <v>44186</v>
       </c>
       <c r="H126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I126" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J126" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4748,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F127" s="2">
         <v>44187</v>
@@ -4757,13 +4862,13 @@
         <v>44186</v>
       </c>
       <c r="H127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I127" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J127" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4780,7 +4885,7 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F128" s="2">
         <v>44187</v>
@@ -4789,13 +4894,13 @@
         <v>44186</v>
       </c>
       <c r="H128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I128" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J128" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4812,7 +4917,7 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F129" s="2">
         <v>44187</v>
@@ -4821,13 +4926,13 @@
         <v>44186</v>
       </c>
       <c r="H129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I129" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J129" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4844,7 +4949,7 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F130" s="2">
         <v>44187</v>
@@ -4853,13 +4958,13 @@
         <v>44187</v>
       </c>
       <c r="H130" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I130" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J130" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4876,7 +4981,7 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F131" s="2">
         <v>44187</v>
@@ -4885,13 +4990,13 @@
         <v>44186</v>
       </c>
       <c r="H131" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I131" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J131" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -4908,7 +5013,7 @@
         <v>23</v>
       </c>
       <c r="E132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F132" s="2">
         <v>44187</v>
@@ -4917,13 +5022,13 @@
         <v>44186</v>
       </c>
       <c r="H132" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I132" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J132" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -4940,7 +5045,7 @@
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F133" s="2">
         <v>44187</v>
@@ -4949,13 +5054,13 @@
         <v>44186</v>
       </c>
       <c r="H133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I133" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J133" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -4972,7 +5077,7 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F134" s="2">
         <v>44187</v>
@@ -4981,10 +5086,10 @@
         <v>44186</v>
       </c>
       <c r="H134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J134" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5001,7 +5106,7 @@
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F135" s="2">
         <v>44187</v>
@@ -5010,13 +5115,13 @@
         <v>44186</v>
       </c>
       <c r="H135" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I135" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J135" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5033,7 +5138,7 @@
         <v>23</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F136" s="2">
         <v>44187</v>
@@ -5042,13 +5147,13 @@
         <v>44186</v>
       </c>
       <c r="H136" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I136" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J136" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5065,7 +5170,7 @@
         <v>12</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F137" s="2">
         <v>44187</v>
@@ -5074,13 +5179,13 @@
         <v>44186</v>
       </c>
       <c r="H137" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I137" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J137" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5097,7 +5202,7 @@
         <v>12</v>
       </c>
       <c r="E138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F138" s="2">
         <v>44187</v>
@@ -5106,13 +5211,13 @@
         <v>44186</v>
       </c>
       <c r="H138" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I138" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J138" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5129,7 +5234,7 @@
         <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F139" s="2">
         <v>44187</v>
@@ -5138,13 +5243,13 @@
         <v>44186</v>
       </c>
       <c r="H139" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I139" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="J139" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5161,7 +5266,7 @@
         <v>12</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F140" s="2">
         <v>44187</v>
@@ -5170,13 +5275,13 @@
         <v>44186</v>
       </c>
       <c r="H140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I140" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J140" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5193,7 +5298,7 @@
         <v>28</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F141" s="2">
         <v>44187</v>
@@ -5202,13 +5307,13 @@
         <v>44186</v>
       </c>
       <c r="H141" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I141" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J141" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5225,7 +5330,7 @@
         <v>12</v>
       </c>
       <c r="E142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F142" s="2">
         <v>44188</v>
@@ -5234,13 +5339,13 @@
         <v>44186</v>
       </c>
       <c r="H142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I142" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J142" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5257,7 +5362,7 @@
         <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F143" s="2">
         <v>44188</v>
@@ -5266,13 +5371,13 @@
         <v>44186</v>
       </c>
       <c r="H143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I143" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J143" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5289,7 +5394,7 @@
         <v>12</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F144" s="2">
         <v>44188</v>
@@ -5298,13 +5403,13 @@
         <v>44187</v>
       </c>
       <c r="H144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I144" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J144" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5321,7 +5426,7 @@
         <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F145" s="2">
         <v>44188</v>
@@ -5330,13 +5435,13 @@
         <v>44187</v>
       </c>
       <c r="H145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I145" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J145" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5353,7 +5458,7 @@
         <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F146" s="2">
         <v>44188</v>
@@ -5362,13 +5467,13 @@
         <v>44187</v>
       </c>
       <c r="H146" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I146" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J146" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5385,7 +5490,7 @@
         <v>12</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F147" s="2">
         <v>44188</v>
@@ -5394,13 +5499,13 @@
         <v>44187</v>
       </c>
       <c r="H147" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I147" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="J147" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5417,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F148" s="2">
         <v>44188</v>
@@ -5426,13 +5531,13 @@
         <v>44187</v>
       </c>
       <c r="H148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I148" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J148" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -5449,7 +5554,7 @@
         <v>12</v>
       </c>
       <c r="E149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F149" s="2">
         <v>44188</v>
@@ -5458,13 +5563,13 @@
         <v>44187</v>
       </c>
       <c r="H149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I149" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J149" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -5481,7 +5586,7 @@
         <v>27</v>
       </c>
       <c r="E150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F150" s="2">
         <v>44188</v>
@@ -5490,13 +5595,13 @@
         <v>44187</v>
       </c>
       <c r="H150" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I150" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J150" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -5513,7 +5618,7 @@
         <v>12</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F151" s="2">
         <v>44188</v>
@@ -5522,13 +5627,13 @@
         <v>44187</v>
       </c>
       <c r="H151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I151" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J151" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5545,7 +5650,7 @@
         <v>12</v>
       </c>
       <c r="E152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F152" s="2">
         <v>44188</v>
@@ -5554,13 +5659,13 @@
         <v>44187</v>
       </c>
       <c r="H152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I152" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="J152" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5577,7 +5682,7 @@
         <v>12</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F153" s="2">
         <v>44188</v>
@@ -5586,13 +5691,13 @@
         <v>44187</v>
       </c>
       <c r="H153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I153" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J153" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -5609,7 +5714,7 @@
         <v>12</v>
       </c>
       <c r="E154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F154" s="2">
         <v>44188</v>
@@ -5618,13 +5723,13 @@
         <v>44187</v>
       </c>
       <c r="H154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I154" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J154" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -5641,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F155" s="2">
         <v>44188</v>
@@ -5650,13 +5755,13 @@
         <v>44187</v>
       </c>
       <c r="H155" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I155" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="J155" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -5673,7 +5778,7 @@
         <v>12</v>
       </c>
       <c r="E156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F156" s="2">
         <v>44188</v>
@@ -5682,13 +5787,13 @@
         <v>44187</v>
       </c>
       <c r="H156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I156" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J156" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -5705,7 +5810,7 @@
         <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F157" s="2">
         <v>44188</v>
@@ -5714,13 +5819,13 @@
         <v>44187</v>
       </c>
       <c r="H157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I157" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J157" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -5737,7 +5842,7 @@
         <v>12</v>
       </c>
       <c r="E158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F158" s="2">
         <v>44188</v>
@@ -5746,13 +5851,13 @@
         <v>44187</v>
       </c>
       <c r="H158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I158" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J158" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -5769,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="E159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F159" s="2">
         <v>44188</v>
@@ -5778,13 +5883,13 @@
         <v>44187</v>
       </c>
       <c r="H159" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I159" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="J159" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -5801,7 +5906,7 @@
         <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F160" s="2">
         <v>44188</v>
@@ -5810,13 +5915,13 @@
         <v>44187</v>
       </c>
       <c r="H160" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I160" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="J160" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -5833,7 +5938,7 @@
         <v>12</v>
       </c>
       <c r="E161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F161" s="2">
         <v>44188</v>
@@ -5842,13 +5947,13 @@
         <v>44187</v>
       </c>
       <c r="H161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I161" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J161" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -5865,7 +5970,7 @@
         <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F162" s="2">
         <v>44188</v>
@@ -5874,13 +5979,13 @@
         <v>44187</v>
       </c>
       <c r="H162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I162" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="J162" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -5897,7 +6002,7 @@
         <v>12</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F163" s="2">
         <v>44188</v>
@@ -5906,13 +6011,13 @@
         <v>44187</v>
       </c>
       <c r="H163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I163" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J163" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -5929,7 +6034,7 @@
         <v>20</v>
       </c>
       <c r="E164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F164" s="2">
         <v>44188</v>
@@ -5938,13 +6043,13 @@
         <v>44187</v>
       </c>
       <c r="H164" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I164" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J164" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -5961,7 +6066,7 @@
         <v>12</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F165" s="2">
         <v>44188</v>
@@ -5970,13 +6075,13 @@
         <v>44187</v>
       </c>
       <c r="H165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I165" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J165" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -5993,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F166" s="2">
         <v>44188</v>
@@ -6002,13 +6107,13 @@
         <v>44187</v>
       </c>
       <c r="H166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I166" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J166" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6025,7 +6130,7 @@
         <v>12</v>
       </c>
       <c r="E167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F167" s="2">
         <v>44188</v>
@@ -6034,13 +6139,13 @@
         <v>44187</v>
       </c>
       <c r="H167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I167" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="J167" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6057,7 +6162,7 @@
         <v>15</v>
       </c>
       <c r="E168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F168" s="2">
         <v>44188</v>
@@ -6066,13 +6171,13 @@
         <v>44187</v>
       </c>
       <c r="H168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I168" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J168" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6089,7 +6194,7 @@
         <v>12</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F169" s="2">
         <v>44188</v>
@@ -6098,13 +6203,13 @@
         <v>44187</v>
       </c>
       <c r="H169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I169" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J169" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6121,7 +6226,7 @@
         <v>12</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F170" s="2">
         <v>44188</v>
@@ -6130,13 +6235,13 @@
         <v>44187</v>
       </c>
       <c r="H170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I170" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J170" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -6153,7 +6258,7 @@
         <v>22</v>
       </c>
       <c r="E171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F171" s="2">
         <v>44188</v>
@@ -6162,13 +6267,13 @@
         <v>44187</v>
       </c>
       <c r="H171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I171" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J171" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -6185,7 +6290,7 @@
         <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F172" s="2">
         <v>44188</v>
@@ -6194,13 +6299,13 @@
         <v>44187</v>
       </c>
       <c r="H172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I172" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="J172" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -6217,7 +6322,7 @@
         <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F173" s="2">
         <v>44188</v>
@@ -6226,13 +6331,13 @@
         <v>44187</v>
       </c>
       <c r="H173" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I173" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J173" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -6249,7 +6354,7 @@
         <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F174" s="2">
         <v>44188</v>
@@ -6258,13 +6363,13 @@
         <v>44187</v>
       </c>
       <c r="H174" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I174" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J174" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6281,7 +6386,7 @@
         <v>12</v>
       </c>
       <c r="E175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F175" s="2">
         <v>44188</v>
@@ -6290,13 +6395,13 @@
         <v>44187</v>
       </c>
       <c r="H175" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I175" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J175" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6313,7 +6418,7 @@
         <v>29</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F176" s="2">
         <v>44188</v>
@@ -6322,13 +6427,13 @@
         <v>44187</v>
       </c>
       <c r="H176" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I176" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J176" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6345,7 +6450,7 @@
         <v>12</v>
       </c>
       <c r="E177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F177" s="2">
         <v>44188</v>
@@ -6354,13 +6459,13 @@
         <v>44187</v>
       </c>
       <c r="H177" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I177" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J177" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6377,7 +6482,7 @@
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F178" s="2">
         <v>44188</v>
@@ -6386,13 +6491,13 @@
         <v>44187</v>
       </c>
       <c r="H178" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I178" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="J178" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6409,7 +6514,7 @@
         <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F179" s="2">
         <v>44188</v>
@@ -6418,13 +6523,13 @@
         <v>44187</v>
       </c>
       <c r="H179" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I179" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="J179" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6441,7 +6546,7 @@
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F180" s="2">
         <v>44188</v>
@@ -6450,13 +6555,13 @@
         <v>44187</v>
       </c>
       <c r="H180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I180" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="J180" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -6473,7 +6578,7 @@
         <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F181" s="2">
         <v>44188</v>
@@ -6482,13 +6587,13 @@
         <v>44187</v>
       </c>
       <c r="H181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I181" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J181" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -6505,7 +6610,7 @@
         <v>20</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F182" s="2">
         <v>44188</v>
@@ -6514,13 +6619,13 @@
         <v>44187</v>
       </c>
       <c r="H182" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I182" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J182" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -6537,7 +6642,7 @@
         <v>12</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F183" s="2">
         <v>44188</v>
@@ -6546,13 +6651,13 @@
         <v>44187</v>
       </c>
       <c r="H183" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I183" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J183" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -6569,7 +6674,7 @@
         <v>20</v>
       </c>
       <c r="E184" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F184" s="2">
         <v>44188</v>
@@ -6578,13 +6683,13 @@
         <v>44187</v>
       </c>
       <c r="H184" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I184" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J184" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -6601,7 +6706,7 @@
         <v>12</v>
       </c>
       <c r="E185" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F185" s="2">
         <v>44188</v>
@@ -6610,13 +6715,2145 @@
         <v>44187</v>
       </c>
       <c r="H185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I185" t="s">
+        <v>71</v>
+      </c>
+      <c r="J185" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186">
+        <v>4490</v>
+      </c>
+      <c r="B186">
+        <v>38</v>
+      </c>
+      <c r="C186" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="F186" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G186" s="2">
+        <v>44186</v>
+      </c>
+      <c r="H186" t="s">
+        <v>34</v>
+      </c>
+      <c r="I186" t="s">
+        <v>71</v>
+      </c>
+      <c r="J186" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187">
+        <v>4491</v>
+      </c>
+      <c r="B187">
+        <v>34</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>34</v>
+      </c>
+      <c r="F187" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G187" s="2">
+        <v>44186</v>
+      </c>
+      <c r="H187" t="s">
+        <v>34</v>
+      </c>
+      <c r="I187" t="s">
+        <v>71</v>
+      </c>
+      <c r="J187" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188">
+        <v>4492</v>
+      </c>
+      <c r="B188">
+        <v>19</v>
+      </c>
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>34</v>
+      </c>
+      <c r="F188" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G188" s="2">
+        <v>44186</v>
+      </c>
+      <c r="H188" t="s">
+        <v>34</v>
+      </c>
+      <c r="I188" t="s">
+        <v>71</v>
+      </c>
+      <c r="J188" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189">
+        <v>4493</v>
+      </c>
+      <c r="B189">
+        <v>45</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>34</v>
+      </c>
+      <c r="F189" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G189" s="2">
+        <v>44186</v>
+      </c>
+      <c r="H189" t="s">
+        <v>34</v>
+      </c>
+      <c r="I189" t="s">
+        <v>109</v>
+      </c>
+      <c r="J189" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190">
+        <v>4494</v>
+      </c>
+      <c r="B190">
+        <v>20</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>34</v>
+      </c>
+      <c r="F190" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G190" s="2">
+        <v>44186</v>
+      </c>
+      <c r="H190" t="s">
+        <v>34</v>
+      </c>
+      <c r="I190" t="s">
+        <v>71</v>
+      </c>
+      <c r="J190" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191">
+        <v>4495</v>
+      </c>
+      <c r="B191">
+        <v>25</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>34</v>
+      </c>
+      <c r="F191" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G191" s="2">
+        <v>44186</v>
+      </c>
+      <c r="H191" t="s">
+        <v>34</v>
+      </c>
+      <c r="J191" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192">
+        <v>4496</v>
+      </c>
+      <c r="B192">
+        <v>27</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>34</v>
+      </c>
+      <c r="F192" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G192" s="2">
+        <v>44186</v>
+      </c>
+      <c r="H192" t="s">
+        <v>34</v>
+      </c>
+      <c r="I192" t="s">
+        <v>71</v>
+      </c>
+      <c r="J192" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
+      <c r="A193">
+        <v>4497</v>
+      </c>
+      <c r="B193">
+        <v>28</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" t="s">
+        <v>34</v>
+      </c>
+      <c r="F193" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G193" s="2">
+        <v>44186</v>
+      </c>
+      <c r="H193" t="s">
+        <v>34</v>
+      </c>
+      <c r="I193" t="s">
+        <v>71</v>
+      </c>
+      <c r="J193" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
+      <c r="A194">
+        <v>4498</v>
+      </c>
+      <c r="B194">
+        <v>55</v>
+      </c>
+      <c r="C194" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" t="s">
+        <v>32</v>
+      </c>
+      <c r="F194" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G194" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H194" t="s">
+        <v>62</v>
+      </c>
+      <c r="I194" t="s">
+        <v>110</v>
+      </c>
+      <c r="J194" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
+      <c r="A195">
+        <v>4499</v>
+      </c>
+      <c r="B195">
+        <v>53</v>
+      </c>
+      <c r="C195" t="s">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>53</v>
+      </c>
+      <c r="F195" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G195" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H195" t="s">
+        <v>53</v>
+      </c>
+      <c r="I195" t="s">
+        <v>111</v>
+      </c>
+      <c r="J195" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
+      <c r="A196">
+        <v>4500</v>
+      </c>
+      <c r="B196">
+        <v>42</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" t="s">
+        <v>54</v>
+      </c>
+      <c r="F196" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G196" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H196" t="s">
+        <v>54</v>
+      </c>
+      <c r="I196" t="s">
+        <v>112</v>
+      </c>
+      <c r="J196" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
+      <c r="A197">
+        <v>4501</v>
+      </c>
+      <c r="B197">
+        <v>45</v>
+      </c>
+      <c r="C197" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>32</v>
+      </c>
+      <c r="F197" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G197" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H197" t="s">
+        <v>62</v>
+      </c>
+      <c r="I197" t="s">
+        <v>104</v>
+      </c>
+      <c r="J197" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198">
+        <v>4502</v>
+      </c>
+      <c r="B198">
+        <v>35</v>
+      </c>
+      <c r="C198" t="s">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" t="s">
+        <v>55</v>
+      </c>
+      <c r="F198" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G198" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H198" t="s">
+        <v>55</v>
+      </c>
+      <c r="I198" t="s">
+        <v>71</v>
+      </c>
+      <c r="J198" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
+      <c r="A199">
+        <v>4503</v>
+      </c>
+      <c r="B199">
+        <v>50</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" t="s">
+        <v>56</v>
+      </c>
+      <c r="F199" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G199" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H199" t="s">
+        <v>56</v>
+      </c>
+      <c r="I199" t="s">
+        <v>113</v>
+      </c>
+      <c r="J199" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
+      <c r="A200">
+        <v>4504</v>
+      </c>
+      <c r="B200">
+        <v>37</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" t="s">
+        <v>44</v>
+      </c>
+      <c r="F200" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G200" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H200" t="s">
+        <v>44</v>
+      </c>
+      <c r="I200" t="s">
+        <v>114</v>
+      </c>
+      <c r="J200" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
+      <c r="A201">
+        <v>4505</v>
+      </c>
+      <c r="B201">
+        <v>44</v>
+      </c>
+      <c r="C201" t="s">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201" t="s">
+        <v>56</v>
+      </c>
+      <c r="F201" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G201" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H201" t="s">
+        <v>56</v>
+      </c>
+      <c r="I201" t="s">
+        <v>113</v>
+      </c>
+      <c r="J201" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
+      <c r="A202">
+        <v>4506</v>
+      </c>
+      <c r="B202">
+        <v>34</v>
+      </c>
+      <c r="C202" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202" t="s">
+        <v>56</v>
+      </c>
+      <c r="F202" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G202" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H202" t="s">
+        <v>56</v>
+      </c>
+      <c r="I202" t="s">
+        <v>113</v>
+      </c>
+      <c r="J202" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
+      <c r="A203">
+        <v>4507</v>
+      </c>
+      <c r="B203">
+        <v>32</v>
+      </c>
+      <c r="C203" t="s">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>34</v>
+      </c>
+      <c r="F203" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G203" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H203" t="s">
+        <v>34</v>
+      </c>
+      <c r="I203" t="s">
+        <v>71</v>
+      </c>
+      <c r="J203" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
+      <c r="A204">
+        <v>4508</v>
+      </c>
+      <c r="B204">
+        <v>59</v>
+      </c>
+      <c r="C204" t="s">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>42</v>
+      </c>
+      <c r="F204" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G204" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H204" t="s">
+        <v>42</v>
+      </c>
+      <c r="I204" t="s">
+        <v>85</v>
+      </c>
+      <c r="J204" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
+      <c r="A205">
+        <v>4509</v>
+      </c>
+      <c r="B205">
+        <v>61</v>
+      </c>
+      <c r="C205" t="s">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>34</v>
+      </c>
+      <c r="F205" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G205" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H205" t="s">
+        <v>34</v>
+      </c>
+      <c r="I205" t="s">
+        <v>71</v>
+      </c>
+      <c r="J205" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
+      <c r="A206">
+        <v>4510</v>
+      </c>
+      <c r="B206">
+        <v>55</v>
+      </c>
+      <c r="C206" t="s">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" t="s">
+        <v>34</v>
+      </c>
+      <c r="F206" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G206" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H206" t="s">
+        <v>34</v>
+      </c>
+      <c r="I206" t="s">
+        <v>71</v>
+      </c>
+      <c r="J206" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
+      <c r="A207">
+        <v>4511</v>
+      </c>
+      <c r="B207">
+        <v>45</v>
+      </c>
+      <c r="C207" t="s">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" t="s">
+        <v>34</v>
+      </c>
+      <c r="F207" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G207" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H207" t="s">
+        <v>34</v>
+      </c>
+      <c r="I207" t="s">
+        <v>115</v>
+      </c>
+      <c r="J207" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
+      <c r="A208">
+        <v>4512</v>
+      </c>
+      <c r="B208">
+        <v>52</v>
+      </c>
+      <c r="C208" t="s">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" t="s">
+        <v>32</v>
+      </c>
+      <c r="F208" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G208" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H208" t="s">
+        <v>34</v>
+      </c>
+      <c r="I208" t="s">
+        <v>71</v>
+      </c>
+      <c r="J208" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
+      <c r="A209">
+        <v>4513</v>
+      </c>
+      <c r="B209">
+        <v>31</v>
+      </c>
+      <c r="C209" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" t="s">
+        <v>32</v>
+      </c>
+      <c r="F209" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G209" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H209" t="s">
+        <v>62</v>
+      </c>
+      <c r="I209" t="s">
+        <v>104</v>
+      </c>
+      <c r="J209" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
+      <c r="A210">
+        <v>4514</v>
+      </c>
+      <c r="B210">
+        <v>31</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" t="s">
+        <v>32</v>
+      </c>
+      <c r="F210" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G210" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H210" t="s">
+        <v>34</v>
+      </c>
+      <c r="I210" t="s">
+        <v>71</v>
+      </c>
+      <c r="J210" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
+      <c r="A211">
+        <v>4515</v>
+      </c>
+      <c r="B211">
+        <v>57</v>
+      </c>
+      <c r="C211" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" t="s">
+        <v>34</v>
+      </c>
+      <c r="F211" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G211" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H211" t="s">
+        <v>34</v>
+      </c>
+      <c r="I211" t="s">
+        <v>71</v>
+      </c>
+      <c r="J211" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
+      <c r="A212">
+        <v>4516</v>
+      </c>
+      <c r="B212">
+        <v>28</v>
+      </c>
+      <c r="C212" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" t="s">
+        <v>32</v>
+      </c>
+      <c r="F212" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G212" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H212" t="s">
+        <v>62</v>
+      </c>
+      <c r="I212" t="s">
+        <v>116</v>
+      </c>
+      <c r="J212" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
+      <c r="A213">
+        <v>4517</v>
+      </c>
+      <c r="B213">
+        <v>46</v>
+      </c>
+      <c r="C213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" t="s">
+        <v>36</v>
+      </c>
+      <c r="F213" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G213" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H213" t="s">
+        <v>62</v>
+      </c>
+      <c r="I213" t="s">
+        <v>104</v>
+      </c>
+      <c r="J213" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
+      <c r="A214">
+        <v>4518</v>
+      </c>
+      <c r="B214">
+        <v>19</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" t="s">
+        <v>30</v>
+      </c>
+      <c r="E214" t="s">
+        <v>33</v>
+      </c>
+      <c r="F214" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G214" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H214" t="s">
+        <v>33</v>
+      </c>
+      <c r="I214" t="s">
+        <v>117</v>
+      </c>
+      <c r="J214" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
+      <c r="A215">
+        <v>4519</v>
+      </c>
+      <c r="B215">
+        <v>28</v>
+      </c>
+      <c r="C215" t="s">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s">
+        <v>14</v>
+      </c>
+      <c r="E215" t="s">
+        <v>32</v>
+      </c>
+      <c r="F215" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G215" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H215" t="s">
+        <v>62</v>
+      </c>
+      <c r="I215" t="s">
+        <v>70</v>
+      </c>
+      <c r="J215" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
+      <c r="A216">
+        <v>4520</v>
+      </c>
+      <c r="B216">
+        <v>23</v>
+      </c>
+      <c r="C216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" t="s">
+        <v>31</v>
+      </c>
+      <c r="F216" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G216" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H216" t="s">
+        <v>31</v>
+      </c>
+      <c r="I216" t="s">
+        <v>118</v>
+      </c>
+      <c r="J216" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
+      <c r="A217">
+        <v>4521</v>
+      </c>
+      <c r="B217">
+        <v>69</v>
+      </c>
+      <c r="C217" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" t="s">
+        <v>32</v>
+      </c>
+      <c r="F217" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G217" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H217" t="s">
+        <v>34</v>
+      </c>
+      <c r="I217" t="s">
+        <v>71</v>
+      </c>
+      <c r="J217" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
+      <c r="A218">
+        <v>4522</v>
+      </c>
+      <c r="B218">
+        <v>28</v>
+      </c>
+      <c r="C218" t="s">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" t="s">
+        <v>33</v>
+      </c>
+      <c r="F218" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G218" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H218" t="s">
+        <v>33</v>
+      </c>
+      <c r="I218" t="s">
+        <v>67</v>
+      </c>
+      <c r="J218" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
+      <c r="A219">
+        <v>4523</v>
+      </c>
+      <c r="B219">
+        <v>55</v>
+      </c>
+      <c r="C219" t="s">
+        <v>10</v>
+      </c>
+      <c r="D219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s">
+        <v>31</v>
+      </c>
+      <c r="F219" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G219" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H219" t="s">
+        <v>31</v>
+      </c>
+      <c r="I219" t="s">
+        <v>71</v>
+      </c>
+      <c r="J219" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
+      <c r="A220">
+        <v>4524</v>
+      </c>
+      <c r="B220">
+        <v>43</v>
+      </c>
+      <c r="C220" t="s">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" t="s">
+        <v>47</v>
+      </c>
+      <c r="F220" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G220" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H220" t="s">
+        <v>47</v>
+      </c>
+      <c r="I220" t="s">
+        <v>119</v>
+      </c>
+      <c r="J220" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
+      <c r="A221">
+        <v>4525</v>
+      </c>
+      <c r="B221">
+        <v>55</v>
+      </c>
+      <c r="C221" t="s">
+        <v>10</v>
+      </c>
+      <c r="D221" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" t="s">
+        <v>32</v>
+      </c>
+      <c r="F221" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G221" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H221" t="s">
+        <v>63</v>
+      </c>
+      <c r="J221" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
+      <c r="A222">
+        <v>4526</v>
+      </c>
+      <c r="B222">
+        <v>41</v>
+      </c>
+      <c r="C222" t="s">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222" t="s">
+        <v>57</v>
+      </c>
+      <c r="F222" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G222" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H222" t="s">
+        <v>57</v>
+      </c>
+      <c r="I222" t="s">
+        <v>120</v>
+      </c>
+      <c r="J222" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
+      <c r="A223">
+        <v>4527</v>
+      </c>
+      <c r="B223">
+        <v>46</v>
+      </c>
+      <c r="C223" t="s">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" t="s">
+        <v>41</v>
+      </c>
+      <c r="F223" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G223" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H223" t="s">
+        <v>41</v>
+      </c>
+      <c r="I223" t="s">
+        <v>103</v>
+      </c>
+      <c r="J223" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
+      <c r="A224">
+        <v>4528</v>
+      </c>
+      <c r="B224">
+        <v>51</v>
+      </c>
+      <c r="C224" t="s">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s">
+        <v>41</v>
+      </c>
+      <c r="F224" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G224" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H224" t="s">
+        <v>41</v>
+      </c>
+      <c r="I224" t="s">
+        <v>103</v>
+      </c>
+      <c r="J224" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
+      <c r="A225">
+        <v>4529</v>
+      </c>
+      <c r="B225">
+        <v>58</v>
+      </c>
+      <c r="C225" t="s">
+        <v>10</v>
+      </c>
+      <c r="D225" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225" t="s">
+        <v>42</v>
+      </c>
+      <c r="F225" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G225" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H225" t="s">
+        <v>42</v>
+      </c>
+      <c r="I225" t="s">
+        <v>121</v>
+      </c>
+      <c r="J225" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
+      <c r="A226">
+        <v>4530</v>
+      </c>
+      <c r="B226">
+        <v>28</v>
+      </c>
+      <c r="C226" t="s">
+        <v>10</v>
+      </c>
+      <c r="D226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" t="s">
+        <v>32</v>
+      </c>
+      <c r="F226" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G226" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H226" t="s">
+        <v>62</v>
+      </c>
+      <c r="I226" t="s">
+        <v>99</v>
+      </c>
+      <c r="J226" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
+      <c r="A227">
+        <v>4531</v>
+      </c>
+      <c r="B227">
+        <v>47</v>
+      </c>
+      <c r="C227" t="s">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227" t="s">
+        <v>32</v>
+      </c>
+      <c r="F227" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G227" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H227" t="s">
+        <v>62</v>
+      </c>
+      <c r="J227" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228">
+        <v>4532</v>
+      </c>
+      <c r="B228">
+        <v>37</v>
+      </c>
+      <c r="C228" t="s">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s">
+        <v>20</v>
+      </c>
+      <c r="E228" t="s">
+        <v>39</v>
+      </c>
+      <c r="F228" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G228" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H228" t="s">
+        <v>39</v>
+      </c>
+      <c r="I228" t="s">
+        <v>83</v>
+      </c>
+      <c r="J228" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229">
+        <v>4533</v>
+      </c>
+      <c r="B229">
+        <v>15</v>
+      </c>
+      <c r="C229" t="s">
+        <v>10</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" t="s">
+        <v>57</v>
+      </c>
+      <c r="F229" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G229" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H229" t="s">
+        <v>57</v>
+      </c>
+      <c r="I229" t="s">
+        <v>120</v>
+      </c>
+      <c r="J229" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230">
+        <v>4534</v>
+      </c>
+      <c r="B230">
+        <v>23</v>
+      </c>
+      <c r="C230" t="s">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230" t="s">
+        <v>57</v>
+      </c>
+      <c r="F230" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G230" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H230" t="s">
+        <v>57</v>
+      </c>
+      <c r="I230" t="s">
+        <v>71</v>
+      </c>
+      <c r="J230" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231">
+        <v>4535</v>
+      </c>
+      <c r="B231">
+        <v>44</v>
+      </c>
+      <c r="C231" t="s">
+        <v>10</v>
+      </c>
+      <c r="D231" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" t="s">
+        <v>58</v>
+      </c>
+      <c r="F231" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G231" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H231" t="s">
+        <v>58</v>
+      </c>
+      <c r="I231" t="s">
+        <v>71</v>
+      </c>
+      <c r="J231" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232">
+        <v>4536</v>
+      </c>
+      <c r="B232">
+        <v>39</v>
+      </c>
+      <c r="C232" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" t="s">
+        <v>32</v>
+      </c>
+      <c r="F232" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G232" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H232" t="s">
+        <v>62</v>
+      </c>
+      <c r="I232" t="s">
+        <v>69</v>
+      </c>
+      <c r="J232" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233">
+        <v>4537</v>
+      </c>
+      <c r="B233">
+        <v>46</v>
+      </c>
+      <c r="C233" t="s">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233" t="s">
+        <v>32</v>
+      </c>
+      <c r="F233" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G233" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H233" t="s">
+        <v>62</v>
+      </c>
+      <c r="I233" t="s">
+        <v>69</v>
+      </c>
+      <c r="J233" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234">
+        <v>4538</v>
+      </c>
+      <c r="B234">
+        <v>30</v>
+      </c>
+      <c r="C234" t="s">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" t="s">
+        <v>59</v>
+      </c>
+      <c r="F234" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G234" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H234" t="s">
+        <v>59</v>
+      </c>
+      <c r="I234" t="s">
+        <v>71</v>
+      </c>
+      <c r="J234" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235">
+        <v>4539</v>
+      </c>
+      <c r="B235">
+        <v>47</v>
+      </c>
+      <c r="C235" t="s">
+        <v>10</v>
+      </c>
+      <c r="D235" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" t="s">
+        <v>47</v>
+      </c>
+      <c r="F235" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G235" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H235" t="s">
+        <v>47</v>
+      </c>
+      <c r="I235" t="s">
+        <v>122</v>
+      </c>
+      <c r="J235" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236">
+        <v>4540</v>
+      </c>
+      <c r="B236">
+        <v>23</v>
+      </c>
+      <c r="C236" t="s">
+        <v>10</v>
+      </c>
+      <c r="D236" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" t="s">
+        <v>31</v>
+      </c>
+      <c r="F236" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G236" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H236" t="s">
+        <v>31</v>
+      </c>
+      <c r="I236" t="s">
+        <v>123</v>
+      </c>
+      <c r="J236" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237">
+        <v>4541</v>
+      </c>
+      <c r="B237">
+        <v>53</v>
+      </c>
+      <c r="C237" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" t="s">
         <v>60</v>
       </c>
-      <c r="J185" t="s">
-        <v>100</v>
+      <c r="F237" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G237" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H237" t="s">
+        <v>31</v>
+      </c>
+      <c r="I237" t="s">
+        <v>118</v>
+      </c>
+      <c r="J237" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238">
+        <v>4542</v>
+      </c>
+      <c r="B238">
+        <v>26</v>
+      </c>
+      <c r="C238" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" t="s">
+        <v>32</v>
+      </c>
+      <c r="F238" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G238" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H238" t="s">
+        <v>34</v>
+      </c>
+      <c r="I238" t="s">
+        <v>71</v>
+      </c>
+      <c r="J238" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239">
+        <v>4543</v>
+      </c>
+      <c r="B239">
+        <v>29</v>
+      </c>
+      <c r="C239" t="s">
+        <v>10</v>
+      </c>
+      <c r="D239" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" t="s">
+        <v>32</v>
+      </c>
+      <c r="F239" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G239" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H239" t="s">
+        <v>62</v>
+      </c>
+      <c r="I239" t="s">
+        <v>124</v>
+      </c>
+      <c r="J239" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240">
+        <v>4544</v>
+      </c>
+      <c r="B240">
+        <v>54</v>
+      </c>
+      <c r="C240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" t="s">
+        <v>32</v>
+      </c>
+      <c r="F240" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G240" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H240" t="s">
+        <v>34</v>
+      </c>
+      <c r="I240" t="s">
+        <v>125</v>
+      </c>
+      <c r="J240" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241">
+        <v>4545</v>
+      </c>
+      <c r="B241">
+        <v>61</v>
+      </c>
+      <c r="C241" t="s">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s">
+        <v>14</v>
+      </c>
+      <c r="E241" t="s">
+        <v>32</v>
+      </c>
+      <c r="F241" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G241" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H241" t="s">
+        <v>62</v>
+      </c>
+      <c r="I241" t="s">
+        <v>69</v>
+      </c>
+      <c r="J241" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242">
+        <v>4546</v>
+      </c>
+      <c r="B242">
+        <v>66</v>
+      </c>
+      <c r="C242" t="s">
+        <v>10</v>
+      </c>
+      <c r="D242" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" t="s">
+        <v>34</v>
+      </c>
+      <c r="F242" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G242" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H242" t="s">
+        <v>34</v>
+      </c>
+      <c r="I242" t="s">
+        <v>71</v>
+      </c>
+      <c r="J242" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243">
+        <v>4547</v>
+      </c>
+      <c r="B243">
+        <v>57</v>
+      </c>
+      <c r="C243" t="s">
+        <v>10</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s">
+        <v>32</v>
+      </c>
+      <c r="F243" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G243" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H243" t="s">
+        <v>62</v>
+      </c>
+      <c r="I243" t="s">
+        <v>91</v>
+      </c>
+      <c r="J243" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244">
+        <v>4548</v>
+      </c>
+      <c r="B244">
+        <v>33</v>
+      </c>
+      <c r="C244" t="s">
+        <v>10</v>
+      </c>
+      <c r="D244" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" t="s">
+        <v>32</v>
+      </c>
+      <c r="F244" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G244" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H244" t="s">
+        <v>34</v>
+      </c>
+      <c r="I244" t="s">
+        <v>71</v>
+      </c>
+      <c r="J244" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245">
+        <v>4549</v>
+      </c>
+      <c r="B245">
+        <v>34</v>
+      </c>
+      <c r="C245" t="s">
+        <v>10</v>
+      </c>
+      <c r="D245" t="s">
+        <v>12</v>
+      </c>
+      <c r="E245" t="s">
+        <v>34</v>
+      </c>
+      <c r="F245" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G245" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H245" t="s">
+        <v>34</v>
+      </c>
+      <c r="I245" t="s">
+        <v>71</v>
+      </c>
+      <c r="J245" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="A246">
+        <v>4550</v>
+      </c>
+      <c r="B246">
+        <v>35</v>
+      </c>
+      <c r="C246" t="s">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246" t="s">
+        <v>36</v>
+      </c>
+      <c r="F246" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G246" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H246" t="s">
+        <v>36</v>
+      </c>
+      <c r="I246" t="s">
+        <v>71</v>
+      </c>
+      <c r="J246" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247">
+        <v>4551</v>
+      </c>
+      <c r="B247">
+        <v>27</v>
+      </c>
+      <c r="C247" t="s">
+        <v>10</v>
+      </c>
+      <c r="D247" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" t="s">
+        <v>36</v>
+      </c>
+      <c r="F247" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G247" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H247" t="s">
+        <v>36</v>
+      </c>
+      <c r="I247" t="s">
+        <v>126</v>
+      </c>
+      <c r="J247" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="A248">
+        <v>4552</v>
+      </c>
+      <c r="B248">
+        <v>59</v>
+      </c>
+      <c r="C248" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" t="s">
+        <v>61</v>
+      </c>
+      <c r="F248" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G248" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H248" t="s">
+        <v>61</v>
+      </c>
+      <c r="I248" t="s">
+        <v>71</v>
+      </c>
+      <c r="J248" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
+      <c r="A249">
+        <v>4553</v>
+      </c>
+      <c r="B249">
+        <v>24</v>
+      </c>
+      <c r="C249" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" t="s">
+        <v>36</v>
+      </c>
+      <c r="F249" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G249" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H249" t="s">
+        <v>36</v>
+      </c>
+      <c r="I249" t="s">
+        <v>127</v>
+      </c>
+      <c r="J249" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250">
+        <v>4554</v>
+      </c>
+      <c r="B250">
+        <v>35</v>
+      </c>
+      <c r="C250" t="s">
+        <v>10</v>
+      </c>
+      <c r="D250" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" t="s">
+        <v>35</v>
+      </c>
+      <c r="F250" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G250" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H250" t="s">
+        <v>35</v>
+      </c>
+      <c r="I250" t="s">
+        <v>71</v>
+      </c>
+      <c r="J250" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="A251">
+        <v>4555</v>
+      </c>
+      <c r="B251">
+        <v>39</v>
+      </c>
+      <c r="C251" t="s">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" t="s">
+        <v>31</v>
+      </c>
+      <c r="F251" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G251" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H251" t="s">
+        <v>36</v>
+      </c>
+      <c r="I251" t="s">
+        <v>128</v>
+      </c>
+      <c r="J251" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252">
+        <v>4556</v>
+      </c>
+      <c r="B252">
+        <v>30</v>
+      </c>
+      <c r="C252" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252" t="s">
+        <v>36</v>
+      </c>
+      <c r="F252" s="2">
+        <v>44189</v>
+      </c>
+      <c r="G252" s="2">
+        <v>44188</v>
+      </c>
+      <c r="H252" t="s">
+        <v>36</v>
+      </c>
+      <c r="I252" t="s">
+        <v>129</v>
+      </c>
+      <c r="J252" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
